--- a/B3 consulting modell.xlsx
+++ b/B3 consulting modell.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augusthodt/Desktop/Aksjemodellering/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92BBE32-928F-4D45-98DF-69480C0D05A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735D391-A36B-E64F-98FD-CE5E6FEABA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17040" activeTab="3" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
+    <workbookView xWindow="24520" yWindow="500" windowWidth="26680" windowHeight="26740" activeTab="1" xr2:uid="{5AE0DF26-B7DD-1242-A60E-253C73A930AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="143">
   <si>
     <t>Kapitalstruktur</t>
   </si>
@@ -465,6 +465,9 @@
   </si>
   <si>
     <t>Null vekst og konstante marginer</t>
+  </si>
+  <si>
+    <t>Organsisk vekst</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -646,6 +649,18 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,6 +936,50 @@
         <a:xfrm>
           <a:off x="13779500" y="3314700"/>
           <a:ext cx="7239000" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132392</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Bilde 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F60F99DC-AE67-87E5-1A1C-E6479CF98CE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11252200" y="5632364"/>
+          <a:ext cx="10343192" cy="2533735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1232,7 +1291,7 @@
   <dimension ref="A5:A27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1280,13 +1339,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9D41D6-FA1C-5144-915F-9569A5873643}">
-  <dimension ref="A1:DW96"/>
+  <dimension ref="A1:DW97"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="W4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="P4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AS24" sqref="AS24"/>
+      <selection pane="bottomRight" activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1306,8 +1365,9 @@
     <col min="14" max="14" width="11.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.33203125" style="2" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="2"/>
-    <col min="17" max="17" width="10.83203125" style="4"/>
-    <col min="18" max="32" width="10.83203125" style="2"/>
+    <col min="17" max="17" width="10.83203125" style="37"/>
+    <col min="18" max="18" width="10.83203125" style="4"/>
+    <col min="19" max="32" width="10.83203125" style="2"/>
     <col min="33" max="33" width="10.83203125" style="4"/>
     <col min="34" max="44" width="10.83203125" style="2"/>
     <col min="45" max="45" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -1376,10 +1436,10 @@
       <c r="P3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="17" t="s">
         <v>35</v>
       </c>
       <c r="S3" s="7" t="s">
@@ -1455,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4">
-        <v>53.5</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>51</v>
@@ -1499,10 +1559,12 @@
       <c r="P4" s="12">
         <v>324</v>
       </c>
-      <c r="Q4" s="13">
+      <c r="Q4" s="39">
         <v>315.60000000000002</v>
       </c>
-      <c r="R4" s="12"/>
+      <c r="R4" s="13">
+        <v>256.3</v>
+      </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="W4" s="12">
@@ -1629,10 +1691,12 @@
       <c r="P5" s="14">
         <v>-32.200000000000003</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="40">
         <v>-34.5</v>
       </c>
-      <c r="R5" s="14"/>
+      <c r="R5" s="15">
+        <v>-31.2</v>
+      </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="W5" s="14">
@@ -1716,7 +1780,7 @@
       </c>
       <c r="B6" s="5">
         <f>B4*B5</f>
-        <v>487.47316800000004</v>
+        <v>437.359104</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -1760,10 +1824,12 @@
       <c r="P6" s="14">
         <v>-24.2</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="40">
         <v>-22.6</v>
       </c>
-      <c r="R6" s="14"/>
+      <c r="R6" s="15">
+        <v>-21.5</v>
+      </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="W6" s="14">
@@ -1846,8 +1912,8 @@
         <v>40</v>
       </c>
       <c r="B7" s="5">
-        <f>Q39</f>
-        <v>79.2</v>
+        <f>R40</f>
+        <v>36.5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>53</v>
@@ -1891,10 +1957,12 @@
       <c r="P7" s="14">
         <v>-243.6</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="40">
         <v>-239.2</v>
       </c>
-      <c r="R7" s="14"/>
+      <c r="R7" s="15">
+        <v>-190.8</v>
+      </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="W7" s="14">
@@ -1977,8 +2045,8 @@
         <v>41</v>
       </c>
       <c r="B8" s="5">
-        <f>Q48+Q50+Q51+Q54</f>
-        <v>503.29999999999995</v>
+        <f>R49+R52+R51+R55</f>
+        <v>469.19999999999993</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>54</v>
@@ -2022,10 +2090,12 @@
       <c r="P8" s="14">
         <v>-8.1</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="40">
         <v>-9</v>
       </c>
-      <c r="R8" s="14"/>
+      <c r="R8" s="15">
+        <v>-7.9</v>
+      </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="W8" s="14">
@@ -2109,7 +2179,7 @@
       </c>
       <c r="B9" s="6">
         <f>B6-B7+B8</f>
-        <v>911.57316800000001</v>
+        <v>870.05910399999993</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>55</v>
@@ -2153,10 +2223,12 @@
       <c r="P9" s="14">
         <v>0</v>
       </c>
-      <c r="Q9" s="15">
-        <v>0</v>
-      </c>
-      <c r="R9" s="14"/>
+      <c r="Q9" s="40">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="W9" s="14">
@@ -2292,13 +2364,13 @@
         <f t="shared" si="5"/>
         <v>-308.10000000000002</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="40">
         <f>SUM(Q5:Q9)</f>
         <v>-305.3</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="15">
         <f t="shared" ref="R10:S10" si="6">SUM(R5:R9)</f>
-        <v>0</v>
+        <v>-251.4</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="6"/>
@@ -2446,13 +2518,13 @@
         <f t="shared" si="19"/>
         <v>15.899999999999977</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="39">
         <f>Q4+Q10</f>
         <v>10.300000000000011</v>
       </c>
-      <c r="R11" s="12">
+      <c r="R11" s="13">
         <f t="shared" ref="R11:S11" si="20">R4+R10</f>
-        <v>0</v>
+        <v>4.9000000000000057</v>
       </c>
       <c r="S11" s="12">
         <f t="shared" si="20"/>
@@ -2600,10 +2672,12 @@
         <f>0.6-0.4-5.3</f>
         <v>-5.0999999999999996</v>
       </c>
-      <c r="Q12" s="15">
+      <c r="Q12" s="40">
         <v>-6.7</v>
       </c>
-      <c r="R12" s="14"/>
+      <c r="R12" s="15">
+        <v>-6.1</v>
+      </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="W12" s="14">
@@ -2735,13 +2809,13 @@
         <f t="shared" si="33"/>
         <v>10.799999999999978</v>
       </c>
-      <c r="Q13" s="15">
+      <c r="Q13" s="40">
         <f>SUM(Q11:Q12)</f>
         <v>3.6000000000000112</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="15">
         <f t="shared" ref="R13:S13" si="34">SUM(R11:R12)</f>
-        <v>0</v>
+        <v>-1.199999999999994</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="34"/>
@@ -2876,10 +2950,12 @@
       <c r="P14" s="14">
         <v>-3.3</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="40">
         <v>-1</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="15">
+        <v>-1.2</v>
+      </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="W14" s="14">
@@ -3013,13 +3089,13 @@
         <f t="shared" si="48"/>
         <v>7.4999999999999778</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="39">
         <f>SUM(Q13:Q14)</f>
         <v>2.6000000000000112</v>
       </c>
-      <c r="R15" s="12">
+      <c r="R15" s="13">
         <f t="shared" ref="R15:S15" si="49">SUM(R13:R14)</f>
-        <v>0</v>
+        <v>-2.3999999999999941</v>
       </c>
       <c r="S15" s="12">
         <f t="shared" si="49"/>
@@ -3111,340 +3187,340 @@
         <v>159.77977961441906</v>
       </c>
       <c r="AR15" s="12">
-        <f>AQ15*(1+AT19)</f>
+        <f>AQ15*(1+$AT$19)</f>
         <v>158.18198181827486</v>
       </c>
       <c r="AS15" s="12">
-        <f t="shared" ref="AS15:DD15" si="62">AR15*(1+AU19)</f>
-        <v>158.18198181827486</v>
+        <f t="shared" ref="AS15:DD15" si="62">AR15*(1+$AT$19)</f>
+        <v>156.60016200009213</v>
       </c>
       <c r="AT15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>155.03416038009121</v>
       </c>
       <c r="AU15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>153.48381877629029</v>
       </c>
       <c r="AV15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>151.94898058852738</v>
       </c>
       <c r="AW15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>150.42949078264209</v>
       </c>
       <c r="AX15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>148.92519587481567</v>
       </c>
       <c r="AY15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>147.43594391606752</v>
       </c>
       <c r="AZ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>145.96158447690684</v>
       </c>
       <c r="BA15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>144.50196863213776</v>
       </c>
       <c r="BB15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>143.05694894581637</v>
       </c>
       <c r="BC15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>141.62637945635819</v>
       </c>
       <c r="BD15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>140.21011566179462</v>
       </c>
       <c r="BE15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>138.80801450517666</v>
       </c>
       <c r="BF15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>137.4199343601249</v>
       </c>
       <c r="BG15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>136.04573501652365</v>
       </c>
       <c r="BH15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>134.68527766635842</v>
       </c>
       <c r="BI15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>133.33842488969483</v>
       </c>
       <c r="BJ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>132.00504064079789</v>
       </c>
       <c r="BK15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>130.68499023438991</v>
       </c>
       <c r="BL15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>129.378140332046</v>
       </c>
       <c r="BM15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>128.08435892872555</v>
       </c>
       <c r="BN15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>126.80351533943829</v>
       </c>
       <c r="BO15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>125.53548018604391</v>
       </c>
       <c r="BP15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>124.28012538418348</v>
       </c>
       <c r="BQ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>123.03732413034164</v>
       </c>
       <c r="BR15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>121.80695088903823</v>
       </c>
       <c r="BS15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>120.58888138014785</v>
       </c>
       <c r="BT15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>119.38299256634637</v>
       </c>
       <c r="BU15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>118.18916264068291</v>
       </c>
       <c r="BV15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>117.00727101427609</v>
       </c>
       <c r="BW15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>115.83719830413332</v>
       </c>
       <c r="BX15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>114.67882632109199</v>
       </c>
       <c r="BY15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>113.53203805788107</v>
       </c>
       <c r="BZ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>112.39671767730225</v>
       </c>
       <c r="CA15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>111.27275050052923</v>
       </c>
       <c r="CB15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>110.16002299552393</v>
       </c>
       <c r="CC15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>109.05842276556869</v>
       </c>
       <c r="CD15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>107.96783853791301</v>
       </c>
       <c r="CE15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>106.88816015253389</v>
       </c>
       <c r="CF15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>105.81927855100855</v>
       </c>
       <c r="CG15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>104.76108576549846</v>
       </c>
       <c r="CH15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>103.71347490784348</v>
       </c>
       <c r="CI15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>102.67634015876504</v>
       </c>
       <c r="CJ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>101.64957675717739</v>
       </c>
       <c r="CK15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>100.63308098960562</v>
       </c>
       <c r="CL15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>99.62675017970956</v>
       </c>
       <c r="CM15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>98.630482677912468</v>
       </c>
       <c r="CN15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>97.64417785113335</v>
       </c>
       <c r="CO15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>96.66773607262202</v>
       </c>
       <c r="CP15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>95.701058711895797</v>
       </c>
       <c r="CQ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>94.744048124776839</v>
       </c>
       <c r="CR15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>93.796607643529072</v>
       </c>
       <c r="CS15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>92.858641567093784</v>
       </c>
       <c r="CT15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>91.930055151422849</v>
       </c>
       <c r="CU15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>91.010754599908623</v>
       </c>
       <c r="CV15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>90.10064705390954</v>
       </c>
       <c r="CW15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>89.199640583370439</v>
       </c>
       <c r="CX15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>88.30764417753673</v>
       </c>
       <c r="CY15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>87.424567735761357</v>
       </c>
       <c r="CZ15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>86.550322058403736</v>
       </c>
       <c r="DA15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>85.684818837819705</v>
       </c>
       <c r="DB15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>84.827970649441511</v>
       </c>
       <c r="DC15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>83.979690942947101</v>
       </c>
       <c r="DD15" s="12">
         <f t="shared" si="62"/>
-        <v>158.18198181827486</v>
+        <v>83.139894033517635</v>
       </c>
       <c r="DE15" s="12">
-        <f t="shared" ref="DE15:DW15" si="63">DD15*(1+DG19)</f>
-        <v>158.18198181827486</v>
+        <f t="shared" ref="DE15:DW15" si="63">DD15*(1+$AT$19)</f>
+        <v>82.308495093182458</v>
       </c>
       <c r="DF15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>81.485410142250629</v>
       </c>
       <c r="DG15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>80.670556040828117</v>
       </c>
       <c r="DH15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>79.863850480419842</v>
       </c>
       <c r="DI15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>79.06521197561564</v>
       </c>
       <c r="DJ15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>78.274559855859479</v>
       </c>
       <c r="DK15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>77.491814257300888</v>
       </c>
       <c r="DL15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>76.716896114727874</v>
       </c>
       <c r="DM15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>75.949727153580596</v>
       </c>
       <c r="DN15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>75.19022988204479</v>
       </c>
       <c r="DO15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>74.438327583224336</v>
       </c>
       <c r="DP15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>73.693944307392087</v>
       </c>
       <c r="DQ15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>72.957004864318165</v>
       </c>
       <c r="DR15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>72.227434815674982</v>
       </c>
       <c r="DS15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>71.505160467518238</v>
       </c>
       <c r="DT15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>70.790108862843056</v>
       </c>
       <c r="DU15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>70.082207774214623</v>
       </c>
       <c r="DV15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>69.381385696472478</v>
       </c>
       <c r="DW15" s="12">
         <f t="shared" si="63"/>
-        <v>158.18198181827486</v>
+        <v>68.687571839507754</v>
       </c>
     </row>
     <row r="16" spans="1:127" x14ac:dyDescent="0.25">
@@ -3490,7 +3566,10 @@
       <c r="P16" s="9">
         <v>9.1117647999999996</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="41">
+        <v>9.1117647999999996</v>
+      </c>
+      <c r="R16" s="8">
         <v>9.1117647999999996</v>
       </c>
       <c r="W16" s="9">
@@ -3613,13 +3692,13 @@
         <f t="shared" si="64"/>
         <v>0.8231116764559131</v>
       </c>
-      <c r="Q17" s="22">
+      <c r="Q17" s="42">
         <f>Q15/Q16</f>
         <v>0.2853453811713853</v>
       </c>
-      <c r="R17" s="19" t="e">
+      <c r="R17" s="22">
         <f t="shared" ref="R17:S17" si="65">R15/R16</f>
-        <v>#DIV/0!</v>
+        <v>-0.26339573646589232</v>
       </c>
       <c r="S17" s="19" t="e">
         <f t="shared" si="65"/>
@@ -3789,13 +3868,13 @@
         <f t="shared" si="68"/>
         <v>0.14934373891450878</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="43">
         <f>(Q4-M4)/M4</f>
         <v>0.18468468468468488</v>
       </c>
-      <c r="R19" s="18">
+      <c r="R19" s="23">
         <f t="shared" ref="R19:S19" si="69">(R4-N4)/N4</f>
-        <v>-1</v>
+        <v>4.4843049327354258E-2</v>
       </c>
       <c r="S19" s="18">
         <f t="shared" si="69"/>
@@ -3891,298 +3970,188 @@
     </row>
     <row r="20" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18">
+        <v>-0.11</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>-0.112</v>
+      </c>
+      <c r="R20" s="23">
+        <v>-0.14199999999999999</v>
+      </c>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="23"/>
+      <c r="AH20" s="18"/>
+      <c r="AI20" s="18"/>
+      <c r="AJ20" s="18"/>
+      <c r="AK20" s="18"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="18"/>
+      <c r="AN20" s="18"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AS20" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT20" s="30">
+        <f>NPV(AT18,AH15:DW15)</f>
+        <v>1399.9502096600359</v>
+      </c>
+    </row>
+    <row r="21" spans="3:46" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="18">
-        <f t="shared" ref="H20:P20" si="72">(H10-D10)/D10</f>
+      <c r="H21" s="18">
+        <f t="shared" ref="H21:S21" si="72">(H10-D10)/D10</f>
         <v>0.12238452427951045</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I21" s="18">
         <f t="shared" si="72"/>
         <v>8.8557993730407278E-2</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J21" s="18">
         <f t="shared" si="72"/>
         <v>1.0401891252955028E-2</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K21" s="18">
         <f t="shared" si="72"/>
         <v>-4.4633730834753062E-2</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L21" s="18">
         <f t="shared" si="72"/>
         <v>-3.6229335209286007E-2</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M21" s="18">
         <f t="shared" si="72"/>
         <v>-7.1994240460763151E-2</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N21" s="18">
         <f t="shared" si="72"/>
         <v>0.14272344408048668</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O21" s="18">
         <f t="shared" si="72"/>
         <v>0.16761768901569188</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P21" s="18">
         <f t="shared" si="72"/>
         <v>0.12445255474452563</v>
       </c>
-      <c r="Q20" s="23">
-        <f>(Q10-M10)/M10</f>
+      <c r="Q21" s="43">
+        <f t="shared" si="72"/>
         <v>0.18425135764158287</v>
       </c>
-      <c r="R20" s="18">
-        <f t="shared" ref="R20:S20" si="73">(R10-N10)/N10</f>
+      <c r="R21" s="23">
+        <f t="shared" si="72"/>
+        <v>2.9484029484029554E-2</v>
+      </c>
+      <c r="S21" s="18">
+        <f t="shared" si="72"/>
         <v>-1</v>
       </c>
-      <c r="S20" s="18">
+      <c r="T21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18">
+        <f t="shared" ref="X21:AQ21" si="73">(X10-W10)/W10</f>
+        <v>0.29081609221796134</v>
+      </c>
+      <c r="Y21" s="18">
         <f t="shared" si="73"/>
-        <v>-1</v>
-      </c>
-      <c r="T20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18">
-        <f t="shared" ref="X20:AE20" si="74">(X10-W10)/W10</f>
-        <v>0.29081609221796134</v>
-      </c>
-      <c r="Y20" s="18">
-        <f t="shared" si="74"/>
         <v>0.29662893864935203</v>
       </c>
-      <c r="Z20" s="18">
-        <f t="shared" si="74"/>
+      <c r="Z21" s="18">
+        <f t="shared" si="73"/>
         <v>0.16619248268328093</v>
       </c>
-      <c r="AA20" s="18">
-        <f t="shared" si="74"/>
+      <c r="AA21" s="18">
+        <f t="shared" si="73"/>
         <v>0.19010904171231524</v>
       </c>
-      <c r="AB20" s="18">
-        <f t="shared" si="74"/>
+      <c r="AB21" s="18">
+        <f t="shared" si="73"/>
         <v>5.9731221858115892E-3</v>
       </c>
-      <c r="AC20" s="18">
-        <f t="shared" si="74"/>
+      <c r="AC21" s="18">
+        <f t="shared" si="73"/>
         <v>4.7555292424022975E-2</v>
       </c>
-      <c r="AD20" s="18">
-        <f t="shared" si="74"/>
+      <c r="AD21" s="18">
+        <f t="shared" si="73"/>
         <v>0.18848743378023128</v>
       </c>
-      <c r="AE20" s="18">
-        <f t="shared" si="74"/>
+      <c r="AE21" s="18">
+        <f t="shared" si="73"/>
         <v>4.2036638016085426E-2</v>
       </c>
-      <c r="AF20" s="18">
-        <f>(AF10-AE10)/AE10</f>
+      <c r="AF21" s="18">
+        <f t="shared" si="73"/>
         <v>4.4783185002840328E-2</v>
       </c>
-      <c r="AG20" s="23">
-        <f t="shared" ref="AG20:AQ20" si="75">(AG10-AF10)/AF10</f>
+      <c r="AG21" s="23">
+        <f t="shared" si="73"/>
         <v>0.12999999999999992</v>
       </c>
-      <c r="AH20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AH21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7642048028998618E-2</v>
       </c>
-      <c r="AI20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AI21" s="18">
+        <f t="shared" si="73"/>
         <v>9.76584646579398E-2</v>
       </c>
-      <c r="AJ20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AJ21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7674801766648653E-2</v>
       </c>
-      <c r="AK20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AK21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7691059255187493E-2</v>
       </c>
-      <c r="AL20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AL21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7707237031197713E-2</v>
       </c>
-      <c r="AM20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AM21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7723335009839971E-2</v>
       </c>
-      <c r="AN20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AN21" s="18">
+        <f t="shared" si="73"/>
         <v>9.773935311373122E-2</v>
       </c>
-      <c r="AO20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AO21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7755291272884043E-2</v>
       </c>
-      <c r="AP20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AP21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7771149424641407E-2</v>
       </c>
-      <c r="AQ20" s="18">
-        <f t="shared" si="75"/>
+      <c r="AQ21" s="18">
+        <f t="shared" si="73"/>
         <v>9.7786927513613384E-2</v>
-      </c>
-      <c r="AS20" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT20" s="30">
-        <f>NPV(AT18,AH15:DW15)</f>
-        <v>1500.8311965595758</v>
-      </c>
-    </row>
-    <row r="21" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="20">
-        <f t="shared" ref="D21:P21" si="76">D11/D4</f>
-        <v>0.13372093023255804</v>
-      </c>
-      <c r="E21" s="20">
-        <f t="shared" si="76"/>
-        <v>0.11908871246116663</v>
-      </c>
-      <c r="F21" s="20">
-        <f t="shared" si="76"/>
-        <v>0.10343365832980078</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" si="76"/>
-        <v>0.11914765906362541</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="76"/>
-        <v>0.12576875768757681</v>
-      </c>
-      <c r="I21" s="20">
-        <f t="shared" si="76"/>
-        <v>7.4000000000000149E-2</v>
-      </c>
-      <c r="J21" s="20">
-        <f t="shared" si="76"/>
-        <v>4.4702726866338846E-2</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="76"/>
-        <v>4.4959128065395246E-2</v>
-      </c>
-      <c r="L21" s="20">
-        <f t="shared" si="76"/>
-        <v>2.8024122029088251E-2</v>
-      </c>
-      <c r="M21" s="20">
-        <f t="shared" si="76"/>
-        <v>3.2282282282282374E-2</v>
-      </c>
-      <c r="N21" s="20">
-        <f t="shared" si="76"/>
-        <v>4.4843049327355188E-3</v>
-      </c>
-      <c r="O21" s="20">
-        <f t="shared" si="76"/>
-        <v>2.6174895895300452E-2</v>
-      </c>
-      <c r="P21" s="20">
-        <f t="shared" si="76"/>
-        <v>4.9074074074074006E-2</v>
-      </c>
-      <c r="Q21" s="21">
-        <f>Q11/Q4</f>
-        <v>3.2636248415716128E-2</v>
-      </c>
-      <c r="R21" s="20" t="e">
-        <f t="shared" ref="R21:S21" si="77">R11/R4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="20" t="e">
-        <f t="shared" si="77"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T21" s="20"/>
-      <c r="W21" s="20">
-        <f t="shared" ref="W21:AE21" si="78">W11/W4</f>
-        <v>8.9390264302442263E-2</v>
-      </c>
-      <c r="X21" s="20">
-        <f t="shared" si="78"/>
-        <v>7.9496794583132108E-2</v>
-      </c>
-      <c r="Y21" s="20">
-        <f t="shared" si="78"/>
-        <v>5.9842991956118807E-2</v>
-      </c>
-      <c r="Z21" s="20">
-        <f t="shared" si="78"/>
-        <v>6.5841603200246138E-2</v>
-      </c>
-      <c r="AA21" s="20">
-        <f t="shared" si="78"/>
-        <v>3.7102784612529055E-2</v>
-      </c>
-      <c r="AB21" s="20">
-        <f t="shared" si="78"/>
-        <v>4.9534472392315836E-2</v>
-      </c>
-      <c r="AC21" s="20">
-        <f t="shared" si="78"/>
-        <v>7.641709064051995E-2</v>
-      </c>
-      <c r="AD21" s="20">
-        <f t="shared" si="78"/>
-        <v>0.11958181543384561</v>
-      </c>
-      <c r="AE21" s="20">
-        <f t="shared" si="78"/>
-        <v>7.5374244944410321E-2</v>
-      </c>
-      <c r="AF21" s="20">
-        <f>AF11/AF4</f>
-        <v>2.3278456363958182E-2</v>
-      </c>
-      <c r="AG21" s="21">
-        <f t="shared" ref="AG21:AQ21" si="79">AG11/AG4</f>
-        <v>4.0264917992410998E-2</v>
-      </c>
-      <c r="AH21" s="20">
-        <f t="shared" si="79"/>
-        <v>4.2322199109010174E-2</v>
-      </c>
-      <c r="AI21" s="20">
-        <f t="shared" si="79"/>
-        <v>4.4360777670003668E-2</v>
-      </c>
-      <c r="AJ21" s="20">
-        <f t="shared" si="79"/>
-        <v>4.6380823698624625E-2</v>
-      </c>
-      <c r="AK21" s="20">
-        <f t="shared" si="79"/>
-        <v>4.8382505672439909E-2</v>
-      </c>
-      <c r="AL21" s="20">
-        <f t="shared" si="79"/>
-        <v>5.0365990537402469E-2</v>
-      </c>
-      <c r="AM21" s="20">
-        <f t="shared" si="79"/>
-        <v>5.2331443721774104E-2</v>
-      </c>
-      <c r="AN21" s="20">
-        <f t="shared" si="79"/>
-        <v>5.4279029149924357E-2</v>
-      </c>
-      <c r="AO21" s="20">
-        <f t="shared" si="79"/>
-        <v>5.6208909256000576E-2</v>
-      </c>
-      <c r="AP21" s="20">
-        <f t="shared" si="79"/>
-        <v>5.8121244997476187E-2</v>
-      </c>
-      <c r="AQ21" s="20">
-        <f t="shared" si="79"/>
-        <v>6.0016195868574623E-2</v>
       </c>
       <c r="AS21" s="2" t="s">
         <v>2</v>
@@ -4193,117 +4162,214 @@
     </row>
     <row r="22" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D22" s="2">
-        <v>742</v>
-      </c>
-      <c r="E22" s="2">
-        <v>733</v>
-      </c>
-      <c r="F22" s="2">
-        <v>791</v>
-      </c>
-      <c r="G22" s="2">
-        <v>807</v>
-      </c>
-      <c r="H22" s="2">
-        <v>802</v>
-      </c>
-      <c r="I22" s="2">
-        <v>804</v>
-      </c>
-      <c r="J22" s="2">
-        <v>793</v>
-      </c>
-      <c r="K22" s="2">
-        <v>809</v>
-      </c>
-      <c r="L22" s="2">
-        <v>781</v>
-      </c>
-      <c r="M22" s="2">
-        <v>737</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1009</v>
-      </c>
-      <c r="O22" s="2">
-        <v>996</v>
-      </c>
-      <c r="P22" s="2">
-        <v>988</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>950</v>
-      </c>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" ref="D22:S22" si="74">D11/D4</f>
+        <v>0.13372093023255804</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="74"/>
+        <v>0.11908871246116663</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="74"/>
+        <v>0.10343365832980078</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="74"/>
+        <v>0.11914765906362541</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="74"/>
+        <v>0.12576875768757681</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="74"/>
+        <v>7.4000000000000149E-2</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="74"/>
+        <v>4.4702726866338846E-2</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="74"/>
+        <v>4.4959128065395246E-2</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="74"/>
+        <v>2.8024122029088251E-2</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="74"/>
+        <v>3.2282282282282374E-2</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="74"/>
+        <v>4.4843049327355188E-3</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="74"/>
+        <v>2.6174895895300452E-2</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="74"/>
+        <v>4.9074074074074006E-2</v>
+      </c>
+      <c r="Q22" s="44">
+        <f t="shared" si="74"/>
+        <v>3.2636248415716128E-2</v>
+      </c>
+      <c r="R22" s="21">
+        <f t="shared" si="74"/>
+        <v>1.9118220834959055E-2</v>
+      </c>
+      <c r="S22" s="20" t="e">
+        <f t="shared" si="74"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" s="20"/>
+      <c r="W22" s="20">
+        <f t="shared" ref="W22:AQ22" si="75">W11/W4</f>
+        <v>8.9390264302442263E-2</v>
+      </c>
+      <c r="X22" s="20">
+        <f t="shared" si="75"/>
+        <v>7.9496794583132108E-2</v>
+      </c>
+      <c r="Y22" s="20">
+        <f t="shared" si="75"/>
+        <v>5.9842991956118807E-2</v>
+      </c>
+      <c r="Z22" s="20">
+        <f t="shared" si="75"/>
+        <v>6.5841603200246138E-2</v>
+      </c>
+      <c r="AA22" s="20">
+        <f t="shared" si="75"/>
+        <v>3.7102784612529055E-2</v>
+      </c>
+      <c r="AB22" s="20">
+        <f t="shared" si="75"/>
+        <v>4.9534472392315836E-2</v>
+      </c>
+      <c r="AC22" s="20">
+        <f t="shared" si="75"/>
+        <v>7.641709064051995E-2</v>
+      </c>
+      <c r="AD22" s="20">
+        <f t="shared" si="75"/>
+        <v>0.11958181543384561</v>
+      </c>
+      <c r="AE22" s="20">
+        <f t="shared" si="75"/>
+        <v>7.5374244944410321E-2</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="75"/>
+        <v>2.3278456363958182E-2</v>
+      </c>
+      <c r="AG22" s="21">
+        <f t="shared" si="75"/>
+        <v>4.0264917992410998E-2</v>
+      </c>
+      <c r="AH22" s="20">
+        <f t="shared" si="75"/>
+        <v>4.2322199109010174E-2</v>
+      </c>
+      <c r="AI22" s="20">
+        <f t="shared" si="75"/>
+        <v>4.4360777670003668E-2</v>
+      </c>
+      <c r="AJ22" s="20">
+        <f t="shared" si="75"/>
+        <v>4.6380823698624625E-2</v>
+      </c>
+      <c r="AK22" s="20">
+        <f t="shared" si="75"/>
+        <v>4.8382505672439909E-2</v>
+      </c>
+      <c r="AL22" s="20">
+        <f t="shared" si="75"/>
+        <v>5.0365990537402469E-2</v>
+      </c>
+      <c r="AM22" s="20">
+        <f t="shared" si="75"/>
+        <v>5.2331443721774104E-2</v>
+      </c>
+      <c r="AN22" s="20">
+        <f t="shared" si="75"/>
+        <v>5.4279029149924357E-2</v>
+      </c>
+      <c r="AO22" s="20">
+        <f t="shared" si="75"/>
+        <v>5.6208909256000576E-2</v>
+      </c>
+      <c r="AP22" s="20">
+        <f t="shared" si="75"/>
+        <v>5.8121244997476187E-2</v>
+      </c>
+      <c r="AQ22" s="20">
+        <f t="shared" si="75"/>
+        <v>6.0016195868574623E-2</v>
+      </c>
       <c r="AS22" s="2" t="s">
         <v>134</v>
       </c>
       <c r="AT22" s="9">
         <f>AT20/AT21</f>
-        <v>164.71566906004003</v>
+        <v>153.64401803713616</v>
       </c>
     </row>
     <row r="23" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" ref="H23:P23" si="80">(H22-D22)/D22</f>
-        <v>8.0862533692722366E-2</v>
-      </c>
-      <c r="I23" s="20">
-        <f t="shared" si="80"/>
-        <v>9.6862210095497947E-2</v>
-      </c>
-      <c r="J23" s="20">
-        <f t="shared" si="80"/>
-        <v>2.5284450063211127E-3</v>
-      </c>
-      <c r="K23" s="20">
-        <f t="shared" si="80"/>
-        <v>2.4783147459727386E-3</v>
-      </c>
-      <c r="L23" s="20">
-        <f t="shared" si="80"/>
-        <v>-2.6184538653366583E-2</v>
-      </c>
-      <c r="M23" s="20">
-        <f t="shared" si="80"/>
-        <v>-8.3333333333333329E-2</v>
-      </c>
-      <c r="N23" s="20">
-        <f t="shared" si="80"/>
-        <v>0.27238335435056749</v>
-      </c>
-      <c r="O23" s="20">
-        <f t="shared" si="80"/>
-        <v>0.23114956736711989</v>
-      </c>
-      <c r="P23" s="20">
-        <f t="shared" si="80"/>
-        <v>0.26504481434058896</v>
-      </c>
-      <c r="Q23" s="21">
-        <f>(Q22-M22)/M22</f>
-        <v>0.28900949796472186</v>
-      </c>
-      <c r="R23" s="20">
-        <f t="shared" ref="R23:S23" si="81">(R22-N22)/N22</f>
-        <v>-1</v>
-      </c>
-      <c r="S23" s="20">
-        <f t="shared" si="81"/>
-        <v>-1</v>
-      </c>
-      <c r="T23" s="20"/>
+        <v>124</v>
+      </c>
+      <c r="D23" s="2">
+        <v>742</v>
+      </c>
+      <c r="E23" s="2">
+        <v>733</v>
+      </c>
+      <c r="F23" s="2">
+        <v>791</v>
+      </c>
+      <c r="G23" s="2">
+        <v>807</v>
+      </c>
+      <c r="H23" s="2">
+        <v>802</v>
+      </c>
+      <c r="I23" s="2">
+        <v>804</v>
+      </c>
+      <c r="J23" s="2">
+        <v>793</v>
+      </c>
+      <c r="K23" s="2">
+        <v>809</v>
+      </c>
+      <c r="L23" s="2">
+        <v>781</v>
+      </c>
+      <c r="M23" s="2">
+        <v>737</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1009</v>
+      </c>
+      <c r="O23" s="2">
+        <v>996</v>
+      </c>
+      <c r="P23" s="2">
+        <v>988</v>
+      </c>
+      <c r="Q23" s="37">
+        <v>950</v>
+      </c>
+      <c r="R23" s="4">
+        <v>942</v>
+      </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -4315,86 +4381,124 @@
       </c>
       <c r="AT23" s="18">
         <f>(AT22-B4)/B4</f>
-        <v>2.0787975525241125</v>
-      </c>
-    </row>
-    <row r="25" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
+        <v>2.2009170424403366</v>
+      </c>
+    </row>
+    <row r="24" spans="3:46" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" ref="H24:P24" si="76">(H23-D23)/D23</f>
+        <v>8.0862533692722366E-2</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="76"/>
+        <v>9.6862210095497947E-2</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="76"/>
+        <v>2.5284450063211127E-3</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="76"/>
+        <v>2.4783147459727386E-3</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="76"/>
+        <v>-2.6184538653366583E-2</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="76"/>
+        <v>-8.3333333333333329E-2</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="76"/>
+        <v>0.27238335435056749</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="76"/>
+        <v>0.23114956736711989</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="76"/>
+        <v>0.26504481434058896</v>
+      </c>
+      <c r="Q24" s="44">
+        <f>(Q23-M23)/M23</f>
+        <v>0.28900949796472186</v>
+      </c>
+      <c r="R24" s="21">
+        <f>(R23-N23)/N23</f>
+        <v>-6.6402378592666012E-2</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" ref="R24:S24" si="77">(S23-O23)/O23</f>
+        <v>-1</v>
+      </c>
+      <c r="T24" s="20"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+    </row>
+    <row r="26" spans="3:46" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20">
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20">
         <v>0.63500000000000001</v>
       </c>
-      <c r="X25" s="20">
+      <c r="X26" s="20">
         <v>0.434</v>
       </c>
-      <c r="Y25" s="20">
+      <c r="Y26" s="20">
         <v>0.26500000000000001</v>
       </c>
-      <c r="Z25" s="20">
+      <c r="Z26" s="20">
         <v>0.24299999999999999</v>
       </c>
-      <c r="AA25" s="20">
+      <c r="AA26" s="20">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AB25" s="20">
+      <c r="AB26" s="20">
         <v>0.182</v>
       </c>
-      <c r="AC25" s="20">
+      <c r="AC26" s="20">
         <v>0.27600000000000002</v>
       </c>
-      <c r="AD25" s="20">
+      <c r="AD26" s="20">
         <v>0.54300000000000004</v>
       </c>
-      <c r="AE25" s="20">
+      <c r="AE26" s="20">
         <v>0.33500000000000002</v>
       </c>
-      <c r="AF25" s="20">
+      <c r="AF26" s="20">
         <v>0.38500000000000001</v>
       </c>
-      <c r="AG25" s="21"/>
-      <c r="AH25" s="20"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="20"/>
-      <c r="AL25" s="20"/>
-      <c r="AM25" s="20"/>
-      <c r="AN25" s="20"/>
-      <c r="AO25" s="20"/>
-      <c r="AP25" s="20"/>
-      <c r="AQ25" s="20"/>
-    </row>
-    <row r="26" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
+      <c r="AG26" s="21"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
     </row>
     <row r="27" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
@@ -4405,1170 +4509,1180 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
     </row>
     <row r="28" spans="3:46" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="14">
-        <v>216.6</v>
-      </c>
-      <c r="E28" s="14">
-        <v>216.2</v>
-      </c>
-      <c r="F28" s="14">
-        <v>215.9</v>
-      </c>
-      <c r="G28" s="14">
-        <v>215.5</v>
-      </c>
-      <c r="H28" s="14">
-        <v>215.1</v>
-      </c>
-      <c r="I28" s="14">
-        <v>214.7</v>
-      </c>
-      <c r="J28" s="14">
-        <v>214.3</v>
-      </c>
-      <c r="K28" s="14">
-        <v>214</v>
-      </c>
-      <c r="L28" s="14">
-        <v>213.5</v>
-      </c>
-      <c r="M28" s="14">
-        <v>213.4</v>
-      </c>
-      <c r="N28" s="14">
-        <v>414.5</v>
-      </c>
-      <c r="O28" s="14">
-        <v>416.6</v>
-      </c>
-      <c r="P28" s="14">
-        <v>439.5</v>
-      </c>
-      <c r="Q28" s="15">
-        <v>439.9</v>
-      </c>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
     </row>
     <row r="29" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="14">
-        <v>53.9</v>
+        <v>216.6</v>
       </c>
       <c r="E29" s="14">
-        <v>54.8</v>
+        <v>216.2</v>
       </c>
       <c r="F29" s="14">
-        <v>58.3</v>
+        <v>215.9</v>
       </c>
       <c r="G29" s="14">
-        <v>62.3</v>
+        <v>215.5</v>
       </c>
       <c r="H29" s="14">
-        <v>52.7</v>
+        <v>215.1</v>
       </c>
       <c r="I29" s="14">
-        <v>58.2</v>
+        <v>214.7</v>
       </c>
       <c r="J29" s="14">
-        <v>57.9</v>
+        <v>214.3</v>
       </c>
       <c r="K29" s="14">
-        <v>105.7</v>
+        <v>214</v>
       </c>
       <c r="L29" s="14">
-        <v>97.5</v>
+        <v>213.5</v>
       </c>
       <c r="M29" s="14">
-        <v>96.3</v>
+        <v>213.4</v>
       </c>
       <c r="N29" s="14">
-        <v>105</v>
+        <v>414.5</v>
       </c>
       <c r="O29" s="14">
-        <v>102.1</v>
+        <v>416.6</v>
       </c>
       <c r="P29" s="14">
-        <v>97.3</v>
-      </c>
-      <c r="Q29" s="15">
-        <v>88.9</v>
-      </c>
-      <c r="R29" s="14"/>
+        <v>439.5</v>
+      </c>
+      <c r="Q29" s="40">
+        <v>439.9</v>
+      </c>
+      <c r="R29" s="15">
+        <v>436.1</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
     <row r="30" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="14">
-        <v>2.5</v>
+        <v>53.9</v>
       </c>
       <c r="E30" s="14">
-        <v>3</v>
+        <v>54.8</v>
       </c>
       <c r="F30" s="14">
-        <v>2.8</v>
+        <v>58.3</v>
       </c>
       <c r="G30" s="14">
-        <v>2.5</v>
+        <v>62.3</v>
       </c>
       <c r="H30" s="14">
-        <v>2.2999999999999998</v>
+        <v>52.7</v>
       </c>
       <c r="I30" s="14">
-        <v>2</v>
+        <v>58.2</v>
       </c>
       <c r="J30" s="14">
-        <v>2.4</v>
+        <v>57.9</v>
       </c>
       <c r="K30" s="14">
-        <v>6.1</v>
+        <v>105.7</v>
       </c>
       <c r="L30" s="14">
-        <v>8.9</v>
+        <v>97.5</v>
       </c>
       <c r="M30" s="14">
-        <v>9.4</v>
+        <v>96.3</v>
       </c>
       <c r="N30" s="14">
-        <v>9.9</v>
+        <v>105</v>
       </c>
       <c r="O30" s="14">
-        <v>9</v>
+        <v>102.1</v>
       </c>
       <c r="P30" s="14">
-        <v>8.6</v>
-      </c>
-      <c r="Q30" s="15">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="R30" s="14"/>
+        <v>97.3</v>
+      </c>
+      <c r="Q30" s="40">
+        <v>88.9</v>
+      </c>
+      <c r="R30" s="15">
+        <v>83.4</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
     <row r="31" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D31" s="14">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="E31" s="14">
-        <v>9.3000000000000007</v>
+        <v>3</v>
       </c>
       <c r="F31" s="14">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="G31" s="14">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H31" s="14">
-        <v>19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I31" s="14">
-        <v>17.5</v>
+        <v>2</v>
       </c>
       <c r="J31" s="14">
-        <v>20.6</v>
+        <v>2.4</v>
       </c>
       <c r="K31" s="14">
-        <v>18</v>
+        <v>6.1</v>
       </c>
       <c r="L31" s="14">
-        <v>20.100000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="M31" s="14">
-        <v>18.600000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="N31" s="14">
-        <v>3.9</v>
+        <v>9.9</v>
       </c>
       <c r="O31" s="14">
-        <v>4.4000000000000004</v>
+        <v>9</v>
       </c>
       <c r="P31" s="14">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q31" s="15">
-        <v>5.4</v>
-      </c>
-      <c r="R31" s="14"/>
+        <v>8.6</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R31" s="15">
+        <v>8.1</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
     <row r="32" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D32" s="14">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="E32" s="14">
-        <v>2.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F32" s="14">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="G32" s="14">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="H32" s="14">
-        <v>2.8</v>
+        <v>19</v>
       </c>
       <c r="I32" s="14">
-        <v>2.8</v>
+        <v>17.5</v>
       </c>
       <c r="J32" s="14">
-        <v>2.9</v>
+        <v>20.6</v>
       </c>
       <c r="K32" s="14">
-        <v>4.5</v>
+        <v>18</v>
       </c>
       <c r="L32" s="14">
-        <v>4.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="M32" s="14">
-        <v>4.5999999999999996</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="N32" s="14">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="O32" s="14">
-        <v>6.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="P32" s="14">
-        <v>5.9</v>
-      </c>
-      <c r="Q32" s="15">
-        <v>6.1</v>
-      </c>
-      <c r="R32" s="14"/>
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q32" s="40">
+        <v>5.4</v>
+      </c>
+      <c r="R32" s="15">
+        <v>6.4</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="E33" s="14">
+        <v>2.9</v>
+      </c>
+      <c r="F33" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="G33" s="14">
         <v>3.6</v>
       </c>
-      <c r="E33" s="14">
-        <v>3.6</v>
-      </c>
-      <c r="F33" s="14">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="G33" s="14">
-        <v>16.5</v>
-      </c>
       <c r="H33" s="14">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I33" s="14">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J33" s="14">
         <v>2.9</v>
       </c>
       <c r="K33" s="14">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="L33" s="14">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M33" s="14">
-        <v>0.8</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="N33" s="14">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="O33" s="14">
-        <v>1.5</v>
+        <v>6.2</v>
       </c>
       <c r="P33" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="Q33" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R33" s="14"/>
+        <v>5.9</v>
+      </c>
+      <c r="Q33" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="R33" s="15">
+        <v>6.3</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="14">
-        <v>174.2</v>
+        <v>3.6</v>
       </c>
       <c r="E34" s="14">
-        <v>167.1</v>
+        <v>3.6</v>
       </c>
       <c r="F34" s="14">
-        <v>156.80000000000001</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="G34" s="14">
-        <v>199.8</v>
+        <v>16.5</v>
       </c>
       <c r="H34" s="14">
-        <v>173.8</v>
+        <v>2.9</v>
       </c>
       <c r="I34" s="14">
-        <v>173.5</v>
+        <v>2.9</v>
       </c>
       <c r="J34" s="14">
-        <v>164</v>
+        <v>2.9</v>
       </c>
       <c r="K34" s="14">
-        <v>183.4</v>
+        <v>2.9</v>
       </c>
       <c r="L34" s="14">
-        <v>175.6</v>
+        <v>2.9</v>
       </c>
       <c r="M34" s="14">
-        <v>163.80000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N34" s="14">
-        <v>170.8</v>
+        <v>1.4</v>
       </c>
       <c r="O34" s="14">
-        <v>208.9</v>
+        <v>1.5</v>
       </c>
       <c r="P34" s="14">
-        <v>175.4</v>
-      </c>
-      <c r="Q34" s="15">
-        <v>196.5</v>
-      </c>
-      <c r="R34" s="14"/>
+        <v>1.5</v>
+      </c>
+      <c r="Q34" s="40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R34" s="15">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D35" s="14">
-        <v>2.4</v>
+        <v>174.2</v>
       </c>
       <c r="E35" s="14">
-        <v>2.5</v>
+        <v>167.1</v>
       </c>
       <c r="F35" s="14">
-        <v>1.9</v>
+        <v>156.80000000000001</v>
       </c>
       <c r="G35" s="14">
-        <v>1.4</v>
+        <v>199.8</v>
       </c>
       <c r="H35" s="14">
-        <v>4.9000000000000004</v>
+        <v>173.8</v>
       </c>
       <c r="I35" s="14">
-        <v>5.9</v>
+        <v>173.5</v>
       </c>
       <c r="J35" s="14">
-        <v>6.1</v>
+        <v>164</v>
       </c>
       <c r="K35" s="14">
-        <v>2.2000000000000002</v>
+        <v>183.4</v>
       </c>
       <c r="L35" s="14">
-        <v>2.2000000000000002</v>
+        <v>175.6</v>
       </c>
       <c r="M35" s="14">
-        <v>2.2999999999999998</v>
+        <v>163.80000000000001</v>
       </c>
       <c r="N35" s="14">
-        <v>3.3</v>
+        <v>170.8</v>
       </c>
       <c r="O35" s="14">
-        <v>5.4</v>
+        <v>208.9</v>
       </c>
       <c r="P35" s="14">
-        <v>7.8</v>
-      </c>
-      <c r="Q35" s="15">
-        <v>12.1</v>
-      </c>
-      <c r="R35" s="14"/>
+        <v>175.4</v>
+      </c>
+      <c r="Q35" s="40">
+        <v>196.5</v>
+      </c>
+      <c r="R35" s="15">
+        <v>176.1</v>
+      </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D36" s="14">
-        <v>12.7</v>
+        <v>2.4</v>
       </c>
       <c r="E36" s="14">
-        <v>12.7</v>
+        <v>2.5</v>
       </c>
       <c r="F36" s="14">
-        <v>15.3</v>
+        <v>1.9</v>
       </c>
       <c r="G36" s="14">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H36" s="14">
-        <v>3</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I36" s="14">
-        <v>8.9</v>
+        <v>5.9</v>
       </c>
       <c r="J36" s="14">
-        <v>19.3</v>
+        <v>6.1</v>
       </c>
       <c r="K36" s="14">
-        <v>10.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L36" s="14">
-        <v>20</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M36" s="14">
-        <v>28</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="N36" s="14">
-        <v>41</v>
+        <v>3.3</v>
       </c>
       <c r="O36" s="14">
-        <v>20.5</v>
+        <v>5.4</v>
       </c>
       <c r="P36" s="14">
-        <v>21.2</v>
-      </c>
-      <c r="Q36" s="15">
-        <v>27.9</v>
-      </c>
-      <c r="R36" s="14"/>
+        <v>7.8</v>
+      </c>
+      <c r="Q36" s="40">
+        <v>12.1</v>
+      </c>
+      <c r="R36" s="15">
+        <v>5.9</v>
+      </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
     <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="14">
-        <v>2.1</v>
+        <v>12.7</v>
       </c>
       <c r="E37" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="F37" s="14">
+        <v>15.3</v>
+      </c>
+      <c r="G37" s="14">
+        <v>6.8</v>
+      </c>
+      <c r="H37" s="14">
         <v>3</v>
       </c>
-      <c r="F37" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G37" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="H37" s="14">
-        <v>0.5</v>
-      </c>
       <c r="I37" s="14">
-        <v>0.4</v>
+        <v>8.9</v>
       </c>
       <c r="J37" s="14">
-        <v>0.4</v>
+        <v>19.3</v>
       </c>
       <c r="K37" s="14">
-        <v>0.4</v>
+        <v>10.9</v>
       </c>
       <c r="L37" s="14">
-        <v>4.0999999999999996</v>
+        <v>20</v>
       </c>
       <c r="M37" s="14">
-        <v>2.2999999999999998</v>
+        <v>28</v>
       </c>
       <c r="N37" s="14">
-        <v>2.2000000000000002</v>
+        <v>41</v>
       </c>
       <c r="O37" s="14">
-        <v>2.1</v>
+        <v>20.5</v>
       </c>
       <c r="P37" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="Q37" s="15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="R37" s="14"/>
+        <v>21.2</v>
+      </c>
+      <c r="Q37" s="40">
+        <v>27.9</v>
+      </c>
+      <c r="R37" s="15">
+        <v>33.799999999999997</v>
+      </c>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
     <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="14">
-        <v>38</v>
+        <v>2.1</v>
       </c>
       <c r="E38" s="14">
-        <v>37.200000000000003</v>
+        <v>3</v>
       </c>
       <c r="F38" s="14">
-        <v>47.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G38" s="14">
-        <v>28.1</v>
+        <v>0.3</v>
       </c>
       <c r="H38" s="14">
-        <v>52.4</v>
+        <v>0.5</v>
       </c>
       <c r="I38" s="14">
-        <v>45.4</v>
+        <v>0.4</v>
       </c>
       <c r="J38" s="14">
-        <v>51.6</v>
+        <v>0.4</v>
       </c>
       <c r="K38" s="14">
-        <v>35.6</v>
+        <v>0.4</v>
       </c>
       <c r="L38" s="14">
-        <v>44.4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="M38" s="14">
-        <v>50</v>
-      </c>
-      <c r="N38" s="12">
-        <v>68.400000000000006</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N38" s="14">
+        <v>2.2000000000000002</v>
       </c>
       <c r="O38" s="14">
-        <v>30.9</v>
+        <v>2.1</v>
       </c>
       <c r="P38" s="14">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="Q38" s="15">
-        <v>39.1</v>
-      </c>
-      <c r="R38" s="14"/>
+        <v>1.9</v>
+      </c>
+      <c r="Q38" s="40">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="R38" s="15">
+        <v>2.4</v>
+      </c>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
     <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="14">
-        <v>86.8</v>
+        <v>38</v>
       </c>
       <c r="E39" s="14">
-        <v>93.9</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="F39" s="14">
-        <v>73.7</v>
+        <v>47.5</v>
       </c>
       <c r="G39" s="14">
-        <v>83.4</v>
+        <v>28.1</v>
       </c>
       <c r="H39" s="14">
-        <v>105.5</v>
+        <v>52.4</v>
       </c>
       <c r="I39" s="14">
-        <v>34.6</v>
+        <v>45.4</v>
       </c>
       <c r="J39" s="14">
-        <v>0</v>
+        <v>51.6</v>
       </c>
       <c r="K39" s="14">
-        <v>48.9</v>
+        <v>35.6</v>
       </c>
       <c r="L39" s="14">
-        <v>5.0999999999999996</v>
+        <v>44.4</v>
       </c>
       <c r="M39" s="14">
-        <v>154.19999999999999</v>
-      </c>
-      <c r="N39" s="14">
-        <v>87.3</v>
+        <v>50</v>
+      </c>
+      <c r="N39" s="12">
+        <v>68.400000000000006</v>
       </c>
       <c r="O39" s="14">
-        <v>77.7</v>
+        <v>30.9</v>
       </c>
       <c r="P39" s="14">
-        <v>104.2</v>
-      </c>
-      <c r="Q39" s="15">
-        <v>79.2</v>
-      </c>
-      <c r="R39" s="14"/>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="Q39" s="40">
+        <v>39.1</v>
+      </c>
+      <c r="R39" s="15">
+        <v>45.8</v>
+      </c>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
     <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="14">
+        <v>86.8</v>
+      </c>
+      <c r="E40" s="14">
+        <v>93.9</v>
+      </c>
+      <c r="F40" s="14">
+        <v>73.7</v>
+      </c>
+      <c r="G40" s="14">
+        <v>83.4</v>
+      </c>
+      <c r="H40" s="14">
+        <v>105.5</v>
+      </c>
+      <c r="I40" s="14">
+        <v>34.6</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14">
+        <v>48.9</v>
+      </c>
+      <c r="L40" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M40" s="14">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="N40" s="14">
+        <v>87.3</v>
+      </c>
+      <c r="O40" s="14">
+        <v>77.7</v>
+      </c>
+      <c r="P40" s="14">
+        <v>104.2</v>
+      </c>
+      <c r="Q40" s="40">
+        <v>79.2</v>
+      </c>
+      <c r="R40" s="15">
+        <v>36.5</v>
+      </c>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="12">
-        <f t="shared" ref="D40:P40" si="82">SUM(D28:D39)</f>
+      <c r="D41" s="12">
+        <f t="shared" ref="D41:P41" si="78">SUM(D29:D40)</f>
         <v>602.79999999999995</v>
       </c>
-      <c r="E40" s="12">
-        <f t="shared" si="82"/>
+      <c r="E41" s="12">
+        <f t="shared" si="78"/>
         <v>606.19999999999993</v>
       </c>
-      <c r="F40" s="12">
-        <f t="shared" si="82"/>
+      <c r="F41" s="12">
+        <f t="shared" si="78"/>
         <v>590.90000000000009</v>
       </c>
-      <c r="G40" s="12">
-        <f t="shared" si="82"/>
+      <c r="G41" s="12">
+        <f t="shared" si="78"/>
         <v>623</v>
       </c>
-      <c r="H40" s="12">
-        <f t="shared" si="82"/>
+      <c r="H41" s="12">
+        <f t="shared" si="78"/>
         <v>634.9</v>
       </c>
-      <c r="I40" s="12">
-        <f t="shared" si="82"/>
+      <c r="I41" s="12">
+        <f t="shared" si="78"/>
         <v>566.79999999999995</v>
       </c>
-      <c r="J40" s="12">
-        <f t="shared" si="82"/>
+      <c r="J41" s="12">
+        <f t="shared" si="78"/>
         <v>542.4</v>
       </c>
-      <c r="K40" s="12">
-        <f t="shared" si="82"/>
+      <c r="K41" s="12">
+        <f t="shared" si="78"/>
         <v>632.6</v>
       </c>
-      <c r="L40" s="12">
-        <f t="shared" si="82"/>
+      <c r="L41" s="12">
+        <f t="shared" si="78"/>
         <v>598.80000000000007</v>
       </c>
-      <c r="M40" s="12">
-        <f t="shared" si="82"/>
+      <c r="M41" s="12">
+        <f t="shared" si="78"/>
         <v>743.7</v>
       </c>
-      <c r="N40" s="12">
-        <f t="shared" si="82"/>
+      <c r="N41" s="12">
+        <f t="shared" si="78"/>
         <v>912.69999999999993</v>
       </c>
-      <c r="O40" s="12">
-        <f t="shared" si="82"/>
+      <c r="O41" s="12">
+        <f t="shared" si="78"/>
         <v>885.30000000000007</v>
       </c>
-      <c r="P40" s="12">
-        <f t="shared" si="82"/>
+      <c r="P41" s="12">
+        <f t="shared" si="78"/>
         <v>942.5</v>
       </c>
-      <c r="Q40" s="13">
-        <f>SUM(Q28:Q39)</f>
+      <c r="Q41" s="39">
+        <f>SUM(Q29:Q40)</f>
         <v>908.50000000000011</v>
       </c>
-      <c r="R40" s="12">
-        <f t="shared" ref="R40:S40" si="83">SUM(R28:R39)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="12">
-        <f t="shared" si="83"/>
-        <v>0</v>
-      </c>
-      <c r="T40" s="12"/>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="E41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="F41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="G41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="H41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="I41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="J41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="K41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="L41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="M41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="N41" s="14">
-        <v>1</v>
-      </c>
-      <c r="O41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="P41" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="Q41" s="15">
-        <v>0.9</v>
-      </c>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
+      <c r="R41" s="13">
+        <f t="shared" ref="R41:S41" si="79">SUM(R29:R40)</f>
+        <v>841.89999999999986</v>
+      </c>
+      <c r="S41" s="12">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="T41" s="12"/>
     </row>
     <row r="42" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="E42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="F42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="G42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="H42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="I42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="J42" s="14">
-        <v>98.5</v>
+        <v>0.9</v>
       </c>
       <c r="K42" s="14">
-        <v>114.1</v>
+        <v>0.9</v>
       </c>
       <c r="L42" s="14">
-        <v>114.1</v>
+        <v>0.9</v>
       </c>
       <c r="M42" s="14">
-        <v>114.1</v>
+        <v>0.9</v>
       </c>
       <c r="N42" s="14">
-        <v>98.5</v>
+        <v>1</v>
       </c>
       <c r="O42" s="14">
-        <v>135.6</v>
+        <v>0.9</v>
       </c>
       <c r="P42" s="14">
-        <v>135.6</v>
-      </c>
-      <c r="Q42" s="15">
-        <v>135.6</v>
-      </c>
-      <c r="R42" s="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q42" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="R42" s="15">
+        <v>0.9</v>
+      </c>
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
     <row r="43" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D43" s="14">
+        <v>98.5</v>
       </c>
       <c r="E43" s="14">
-        <v>98.2</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>0</v>
+        <v>98.5</v>
+      </c>
+      <c r="F43" s="14">
+        <v>98.5</v>
+      </c>
+      <c r="G43" s="14">
+        <v>98.5</v>
+      </c>
+      <c r="H43" s="14">
+        <v>98.5</v>
+      </c>
+      <c r="I43" s="14">
+        <v>98.5</v>
       </c>
       <c r="J43" s="14">
-        <v>0</v>
+        <v>98.5</v>
       </c>
       <c r="K43" s="14">
-        <v>0</v>
+        <v>114.1</v>
       </c>
       <c r="L43" s="14">
-        <v>0</v>
+        <v>114.1</v>
       </c>
       <c r="M43" s="14">
-        <v>0</v>
+        <v>114.1</v>
       </c>
       <c r="N43" s="14">
-        <v>-1</v>
+        <v>98.5</v>
       </c>
       <c r="O43" s="14">
-        <v>2.5</v>
+        <v>135.6</v>
       </c>
       <c r="P43" s="14">
-        <v>-4.7</v>
-      </c>
-      <c r="Q43" s="15">
-        <v>-1.5</v>
-      </c>
-      <c r="R43" s="14"/>
+        <v>135.6</v>
+      </c>
+      <c r="Q43" s="40">
+        <v>135.6</v>
+      </c>
+      <c r="R43" s="15">
+        <v>135.6</v>
+      </c>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
     </row>
     <row r="44" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="14">
-        <v>103.9</v>
-      </c>
-      <c r="E44" s="2">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14">
-        <v>116.9</v>
-      </c>
-      <c r="G44" s="14">
-        <v>95.6</v>
-      </c>
-      <c r="H44" s="14">
-        <v>123.9</v>
-      </c>
-      <c r="I44" s="14">
-        <v>59.8</v>
+        <v>78</v>
+      </c>
+      <c r="E44" s="14">
+        <v>98.2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0</v>
       </c>
       <c r="J44" s="14">
-        <v>68.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="K44" s="14">
-        <v>41.7</v>
+        <v>0</v>
       </c>
       <c r="L44" s="14">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="M44" s="14">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="N44" s="14">
-        <v>144.9</v>
+        <v>-1</v>
       </c>
       <c r="O44" s="14">
-        <v>93.5</v>
+        <v>2.5</v>
       </c>
       <c r="P44" s="14">
-        <v>86.1</v>
-      </c>
-      <c r="Q44" s="15">
-        <v>85</v>
-      </c>
-      <c r="R44" s="14"/>
+        <v>-4.7</v>
+      </c>
+      <c r="Q44" s="40">
+        <v>-1.5</v>
+      </c>
+      <c r="R44" s="15">
+        <v>-4</v>
+      </c>
       <c r="S44" s="14"/>
       <c r="T44" s="14"/>
     </row>
     <row r="45" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D45" s="14">
-        <v>25.1</v>
-      </c>
-      <c r="E45" s="14">
-        <v>25.8</v>
+        <v>103.9</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
       </c>
       <c r="F45" s="14">
-        <v>27.9</v>
+        <v>116.9</v>
       </c>
       <c r="G45" s="14">
-        <v>33</v>
+        <v>95.6</v>
       </c>
       <c r="H45" s="14">
-        <v>32.6</v>
+        <v>123.9</v>
       </c>
       <c r="I45" s="14">
-        <v>24.7</v>
+        <v>59.8</v>
       </c>
       <c r="J45" s="14">
-        <v>23.1</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="K45" s="14">
-        <v>23.5</v>
+        <v>41.7</v>
       </c>
       <c r="L45" s="14">
-        <v>19.600000000000001</v>
+        <v>41</v>
       </c>
       <c r="M45" s="14">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="N45" s="14">
-        <v>30.7</v>
+        <v>144.9</v>
       </c>
       <c r="O45" s="14">
-        <v>29.7</v>
+        <v>93.5</v>
       </c>
       <c r="P45" s="14">
-        <v>44.7</v>
-      </c>
-      <c r="Q45" s="15">
-        <v>45.5</v>
-      </c>
-      <c r="R45" s="14"/>
+        <v>86.1</v>
+      </c>
+      <c r="Q45" s="40">
+        <v>85</v>
+      </c>
+      <c r="R45" s="15">
+        <v>80.400000000000006</v>
+      </c>
       <c r="S45" s="14"/>
       <c r="T45" s="14"/>
     </row>
     <row r="46" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" s="14">
+        <v>25.1</v>
+      </c>
+      <c r="E46" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="F46" s="14">
+        <v>27.9</v>
+      </c>
+      <c r="G46" s="14">
+        <v>33</v>
+      </c>
+      <c r="H46" s="14">
+        <v>32.6</v>
+      </c>
+      <c r="I46" s="14">
+        <v>24.7</v>
+      </c>
+      <c r="J46" s="14">
+        <v>23.1</v>
+      </c>
+      <c r="K46" s="14">
+        <v>23.5</v>
+      </c>
+      <c r="L46" s="14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M46" s="14">
+        <v>12.2</v>
+      </c>
+      <c r="N46" s="14">
+        <v>30.7</v>
+      </c>
+      <c r="O46" s="14">
+        <v>29.7</v>
+      </c>
+      <c r="P46" s="14">
+        <v>44.7</v>
+      </c>
+      <c r="Q46" s="40">
+        <v>45.5</v>
+      </c>
+      <c r="R46" s="15">
+        <v>43.4</v>
+      </c>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D46" s="16">
-        <f t="shared" ref="D46:P46" si="84">SUM(D41:D45)</f>
+      <c r="D47" s="16">
+        <f t="shared" ref="D47:P47" si="80">SUM(D42:D46)</f>
         <v>228.4</v>
       </c>
-      <c r="E46" s="16">
-        <f>SUM(E41:E45)</f>
+      <c r="E47" s="16">
+        <f>SUM(E42:E46)</f>
         <v>223.40000000000003</v>
       </c>
-      <c r="F46" s="16">
-        <f t="shared" si="84"/>
+      <c r="F47" s="16">
+        <f t="shared" si="80"/>
         <v>244.20000000000002</v>
       </c>
-      <c r="G46" s="16">
-        <f t="shared" si="84"/>
+      <c r="G47" s="16">
+        <f t="shared" si="80"/>
         <v>228</v>
       </c>
-      <c r="H46" s="16">
-        <f>SUM(H41:H45)</f>
+      <c r="H47" s="16">
+        <f>SUM(H42:H46)</f>
         <v>255.9</v>
       </c>
-      <c r="I46" s="16">
-        <f>SUM(I41:I45)</f>
+      <c r="I47" s="16">
+        <f>SUM(I42:I46)</f>
         <v>183.89999999999998</v>
       </c>
-      <c r="J46" s="16">
-        <f t="shared" si="84"/>
+      <c r="J47" s="16">
+        <f t="shared" si="80"/>
         <v>191.1</v>
       </c>
-      <c r="K46" s="16">
-        <f t="shared" si="84"/>
+      <c r="K47" s="16">
+        <f t="shared" si="80"/>
         <v>180.2</v>
       </c>
-      <c r="L46" s="16">
-        <f t="shared" si="84"/>
+      <c r="L47" s="16">
+        <f t="shared" si="80"/>
         <v>175.6</v>
       </c>
-      <c r="M46" s="16">
-        <f t="shared" si="84"/>
+      <c r="M47" s="16">
+        <f t="shared" si="80"/>
         <v>139.69999999999999</v>
       </c>
-      <c r="N46" s="16">
-        <f t="shared" si="84"/>
+      <c r="N47" s="16">
+        <f t="shared" si="80"/>
         <v>274.10000000000002</v>
       </c>
-      <c r="O46" s="16">
-        <f t="shared" si="84"/>
+      <c r="O47" s="16">
+        <f t="shared" si="80"/>
         <v>262.2</v>
       </c>
-      <c r="P46" s="16">
-        <f t="shared" si="84"/>
+      <c r="P47" s="16">
+        <f t="shared" si="80"/>
         <v>262.60000000000002</v>
       </c>
-      <c r="Q46" s="25">
-        <f>SUM(Q41:Q45)</f>
+      <c r="Q47" s="46">
+        <f>SUM(Q42:Q46)</f>
         <v>265.5</v>
       </c>
-      <c r="R46" s="16">
-        <f t="shared" ref="R46:S46" si="85">SUM(R41:R45)</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="16">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
-      <c r="T46" s="16"/>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C47" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="E47" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="G47" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="H47" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="I47" s="14">
-        <v>0.9</v>
-      </c>
-      <c r="J47" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="K47" s="14">
-        <v>3.5</v>
-      </c>
-      <c r="L47" s="14">
-        <v>4</v>
-      </c>
-      <c r="M47" s="14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N47" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="O47" s="14">
-        <v>0.8</v>
-      </c>
-      <c r="P47" s="14">
-        <v>0.5</v>
-      </c>
-      <c r="Q47" s="15">
-        <v>0.7</v>
-      </c>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
+      <c r="R47" s="25">
+        <f t="shared" ref="R47:S47" si="81">SUM(R42:R46)</f>
+        <v>256.3</v>
+      </c>
+      <c r="S47" s="16">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="T47" s="16"/>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="14">
-        <v>66.400000000000006</v>
+        <v>0.1</v>
       </c>
       <c r="E48" s="14">
-        <v>63.1</v>
+        <v>0.5</v>
       </c>
       <c r="F48" s="14">
-        <v>58.5</v>
+        <v>0.4</v>
       </c>
       <c r="G48" s="14">
-        <v>55.9</v>
+        <v>0.4</v>
       </c>
       <c r="H48" s="14">
-        <v>43.7</v>
+        <v>0.6</v>
       </c>
       <c r="I48" s="14">
-        <v>43.5</v>
+        <v>0.9</v>
       </c>
       <c r="J48" s="14">
-        <v>38.9</v>
+        <v>1.2</v>
       </c>
       <c r="K48" s="14">
-        <v>106.3</v>
+        <v>3.5</v>
       </c>
       <c r="L48" s="14">
-        <v>96.5</v>
+        <v>4</v>
       </c>
       <c r="M48" s="14">
-        <v>264.60000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N48" s="14">
-        <v>268.5</v>
+        <v>1.2</v>
       </c>
       <c r="O48" s="14">
-        <v>265.89999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="P48" s="14">
-        <v>311</v>
-      </c>
-      <c r="Q48" s="15">
-        <v>303.39999999999998</v>
-      </c>
-      <c r="R48" s="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q48" s="40">
+        <v>0.7</v>
+      </c>
+      <c r="R48" s="15">
+        <v>0.8</v>
+      </c>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
     </row>
     <row r="49" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D49" s="14">
-        <v>0</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="E49" s="14">
-        <v>0</v>
+        <v>63.1</v>
       </c>
       <c r="F49" s="14">
-        <v>41.7</v>
+        <v>58.5</v>
       </c>
       <c r="G49" s="14">
-        <v>0.1</v>
+        <v>55.9</v>
       </c>
       <c r="H49" s="14">
-        <v>0.1</v>
+        <v>43.7</v>
       </c>
       <c r="I49" s="14">
-        <v>0.1</v>
+        <v>43.5</v>
       </c>
       <c r="J49" s="14">
-        <v>0.1</v>
+        <v>38.9</v>
       </c>
       <c r="K49" s="14">
-        <v>0</v>
+        <v>106.3</v>
       </c>
       <c r="L49" s="14">
-        <v>0</v>
+        <v>96.5</v>
       </c>
       <c r="M49" s="14">
-        <v>0</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="N49" s="14">
-        <v>7</v>
+        <v>268.5</v>
       </c>
       <c r="O49" s="14">
-        <v>5.3</v>
+        <v>265.89999999999998</v>
       </c>
       <c r="P49" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="Q49" s="15">
-        <v>6.7</v>
-      </c>
-      <c r="R49" s="14"/>
+        <v>311</v>
+      </c>
+      <c r="Q49" s="40">
+        <v>303.39999999999998</v>
+      </c>
+      <c r="R49" s="15">
+        <v>298.89999999999998</v>
+      </c>
       <c r="S49" s="14"/>
       <c r="T49" s="14"/>
     </row>
     <row r="50" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C50" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D50" s="14">
-        <v>36.799999999999997</v>
+        <v>0</v>
       </c>
       <c r="E50" s="14">
-        <v>37.299999999999997</v>
+        <v>0</v>
       </c>
       <c r="F50" s="14">
-        <v>31.3</v>
+        <v>41.7</v>
       </c>
       <c r="G50" s="14">
-        <v>44.1</v>
+        <v>0.1</v>
       </c>
       <c r="H50" s="14">
-        <v>42.3</v>
+        <v>0.1</v>
       </c>
       <c r="I50" s="14">
-        <v>43.9</v>
+        <v>0.1</v>
       </c>
       <c r="J50" s="14">
-        <v>59.5</v>
+        <v>0.1</v>
       </c>
       <c r="K50" s="14">
         <v>0</v>
@@ -5580,130 +5694,130 @@
         <v>0</v>
       </c>
       <c r="N50" s="14">
-        <v>36.9</v>
+        <v>7</v>
       </c>
       <c r="O50" s="14">
-        <v>8.8000000000000007</v>
+        <v>5.3</v>
       </c>
       <c r="P50" s="14">
-        <v>23.1</v>
-      </c>
-      <c r="Q50" s="15">
-        <v>23.9</v>
-      </c>
-      <c r="R50" s="14"/>
+        <v>6.9</v>
+      </c>
+      <c r="Q50" s="40">
+        <v>6.7</v>
+      </c>
+      <c r="R50" s="15">
+        <v>6.3</v>
+      </c>
       <c r="S50" s="14"/>
       <c r="T50" s="14"/>
     </row>
     <row r="51" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="14">
-        <v>30.7</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="E51" s="14">
-        <v>33.299999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="F51" s="14">
-        <v>0</v>
+        <v>31.3</v>
       </c>
       <c r="G51" s="14">
-        <v>54.8</v>
+        <v>44.1</v>
       </c>
       <c r="H51" s="14">
-        <v>30.9</v>
+        <v>42.3</v>
       </c>
       <c r="I51" s="14">
-        <v>32</v>
+        <v>43.9</v>
       </c>
       <c r="J51" s="14">
-        <v>34.6</v>
+        <v>59.5</v>
       </c>
       <c r="K51" s="14">
-        <v>64.7</v>
+        <v>0</v>
       </c>
       <c r="L51" s="14">
-        <v>58.4</v>
+        <v>0</v>
       </c>
       <c r="M51" s="14">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N51" s="14">
-        <v>49.7</v>
+        <v>36.9</v>
       </c>
       <c r="O51" s="14">
-        <v>37.1</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="P51" s="14">
-        <v>35.5</v>
-      </c>
-      <c r="Q51" s="15">
-        <v>46.2</v>
-      </c>
-      <c r="R51" s="14"/>
+        <v>23.1</v>
+      </c>
+      <c r="Q51" s="40">
+        <v>23.9</v>
+      </c>
+      <c r="R51" s="15">
+        <v>23.4</v>
+      </c>
       <c r="S51" s="14"/>
       <c r="T51" s="14"/>
     </row>
     <row r="52" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C52" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D52" s="14">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="E52" s="14">
-        <v>0</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="F52" s="14">
-        <v>147.6</v>
+        <v>0</v>
       </c>
       <c r="G52" s="14">
-        <v>3.4</v>
+        <v>54.8</v>
       </c>
       <c r="H52" s="14">
-        <v>3.1</v>
+        <v>30.9</v>
       </c>
       <c r="I52" s="14">
-        <v>2.5</v>
+        <v>32</v>
       </c>
       <c r="J52" s="14">
-        <v>3</v>
+        <v>34.6</v>
       </c>
       <c r="K52" s="14">
-        <v>42.2</v>
+        <v>64.7</v>
       </c>
       <c r="L52" s="14">
-        <v>38</v>
+        <v>58.4</v>
       </c>
       <c r="M52" s="14">
-        <v>45.1</v>
+        <v>30</v>
       </c>
       <c r="N52" s="14">
-        <v>3.2</v>
+        <v>49.7</v>
       </c>
       <c r="O52" s="14">
-        <v>61.7</v>
+        <v>37.1</v>
       </c>
       <c r="P52" s="14">
-        <v>43.5</v>
-      </c>
-      <c r="Q52" s="15">
-        <v>42.4</v>
-      </c>
-      <c r="R52" s="14"/>
+        <v>35.5</v>
+      </c>
+      <c r="Q52" s="40">
+        <v>46.2</v>
+      </c>
+      <c r="R52" s="15">
+        <v>34.9</v>
+      </c>
       <c r="S52" s="14"/>
       <c r="T52" s="14"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
-      <c r="AD52" s="1"/>
-      <c r="AE52" s="1"/>
-      <c r="AF52" s="1"/>
     </row>
     <row r="53" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D53" s="14">
         <v>0</v>
@@ -5712,358 +5826,408 @@
         <v>0</v>
       </c>
       <c r="F53" s="14">
-        <v>67.2</v>
+        <v>147.6</v>
       </c>
       <c r="G53" s="14">
-        <v>0.2</v>
+        <v>3.4</v>
       </c>
       <c r="H53" s="14">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="I53" s="14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="J53" s="14">
-        <v>151</v>
+        <v>3</v>
       </c>
       <c r="K53" s="14">
-        <v>0.4</v>
+        <v>42.2</v>
       </c>
       <c r="L53" s="14">
-        <v>1.2</v>
+        <v>38</v>
       </c>
       <c r="M53" s="14">
-        <v>1.4</v>
+        <v>45.1</v>
       </c>
       <c r="N53" s="14">
-        <v>173.2</v>
+        <v>3.2</v>
       </c>
       <c r="O53" s="14">
-        <v>2.9</v>
+        <v>61.7</v>
       </c>
       <c r="P53" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="Q53" s="15">
-        <v>5.7</v>
-      </c>
-      <c r="R53" s="14"/>
+        <v>43.5</v>
+      </c>
+      <c r="Q53" s="40">
+        <v>42.4</v>
+      </c>
+      <c r="R53" s="15">
+        <v>41.4</v>
+      </c>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
+      <c r="AA53" s="1"/>
+      <c r="AB53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AD53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AF53" s="1"/>
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54" s="14">
-        <v>158.80000000000001</v>
+        <v>0</v>
       </c>
       <c r="E54" s="14">
-        <v>159.5</v>
+        <v>0</v>
       </c>
       <c r="F54" s="14">
-        <v>0</v>
+        <v>67.2</v>
       </c>
       <c r="G54" s="14">
-        <v>161</v>
+        <v>0.2</v>
       </c>
       <c r="H54" s="14">
-        <v>166.8</v>
+        <v>1.8</v>
       </c>
       <c r="I54" s="14">
-        <v>170.8</v>
+        <v>0</v>
       </c>
       <c r="J54" s="14">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="K54" s="14">
-        <v>157.5</v>
+        <v>0.4</v>
       </c>
       <c r="L54" s="14">
-        <v>143.80000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="M54" s="14">
-        <v>143.19999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="N54" s="14">
-        <v>31.9</v>
+        <v>173.2</v>
       </c>
       <c r="O54" s="14">
-        <v>169.8</v>
+        <v>2.9</v>
       </c>
       <c r="P54" s="14">
-        <v>165.7</v>
-      </c>
-      <c r="Q54" s="15">
-        <v>129.80000000000001</v>
-      </c>
-      <c r="R54" s="14"/>
+        <v>4.2</v>
+      </c>
+      <c r="Q54" s="40">
+        <v>5.7</v>
+      </c>
+      <c r="R54" s="15">
+        <v>3.3</v>
+      </c>
       <c r="S54" s="14"/>
       <c r="T54" s="14"/>
     </row>
     <row r="55" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="14">
-        <v>81.599999999999994</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="E55" s="14">
-        <v>89.1</v>
+        <v>159.5</v>
       </c>
       <c r="F55" s="14">
         <v>0</v>
       </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
+      <c r="G55" s="14">
+        <v>161</v>
+      </c>
+      <c r="H55" s="14">
+        <v>166.8</v>
+      </c>
+      <c r="I55" s="14">
+        <v>170.8</v>
+      </c>
+      <c r="J55" s="14">
         <v>0</v>
       </c>
       <c r="K55" s="14">
-        <v>0</v>
+        <v>157.5</v>
       </c>
       <c r="L55" s="14">
-        <v>0</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="M55" s="14">
-        <v>30.2</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0</v>
-      </c>
-      <c r="O55" s="2">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="15">
-        <v>0</v>
-      </c>
-      <c r="R55" s="14"/>
+        <v>143.19999999999999</v>
+      </c>
+      <c r="N55" s="14">
+        <v>31.9</v>
+      </c>
+      <c r="O55" s="14">
+        <v>169.8</v>
+      </c>
+      <c r="P55" s="14">
+        <v>165.7</v>
+      </c>
+      <c r="Q55" s="40">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="R55" s="15">
+        <v>112</v>
+      </c>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
     </row>
     <row r="56" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D56" s="14">
-        <v>0</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="E56" s="14">
-        <v>0</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="14">
-        <v>75</v>
-      </c>
-      <c r="H56" s="14">
-        <v>89.6</v>
-      </c>
-      <c r="I56" s="14">
-        <v>92</v>
-      </c>
-      <c r="J56" s="14">
-        <v>63</v>
+        <v>89.1</v>
+      </c>
+      <c r="F56" s="14">
+        <v>0</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
       </c>
       <c r="K56" s="14">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="L56" s="14">
-        <v>81.3</v>
+        <v>0</v>
       </c>
       <c r="M56" s="14">
-        <v>88.4</v>
-      </c>
-      <c r="N56" s="14">
-        <v>67.5</v>
-      </c>
-      <c r="O56" s="14">
-        <v>70.8</v>
-      </c>
-      <c r="P56" s="14">
-        <v>89.5</v>
-      </c>
-      <c r="Q56" s="15">
-        <v>94.2</v>
-      </c>
-      <c r="R56" s="14"/>
+        <v>30.2</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="40">
+        <v>0</v>
+      </c>
+      <c r="R56" s="15">
+        <v>0</v>
+      </c>
       <c r="S56" s="14"/>
       <c r="T56" s="14"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
-      <c r="AD56" s="1"/>
-      <c r="AE56" s="1"/>
-      <c r="AF56" s="1"/>
     </row>
     <row r="57" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" s="14">
+        <v>0</v>
+      </c>
+      <c r="E57" s="14">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="14">
+        <v>75</v>
+      </c>
+      <c r="H57" s="14">
+        <v>89.6</v>
+      </c>
+      <c r="I57" s="14">
+        <v>92</v>
+      </c>
+      <c r="J57" s="14">
+        <v>63</v>
+      </c>
+      <c r="K57" s="14">
+        <v>77.8</v>
+      </c>
+      <c r="L57" s="14">
+        <v>81.3</v>
+      </c>
+      <c r="M57" s="14">
+        <v>88.4</v>
+      </c>
+      <c r="N57" s="14">
+        <v>67.5</v>
+      </c>
+      <c r="O57" s="14">
+        <v>70.8</v>
+      </c>
+      <c r="P57" s="14">
+        <v>89.5</v>
+      </c>
+      <c r="Q57" s="40">
+        <v>94.2</v>
+      </c>
+      <c r="R57" s="15">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="AA57" s="1"/>
+      <c r="AB57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AD57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AF57" s="1"/>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D57" s="16">
-        <f t="shared" ref="D57:M57" si="86">SUM(D47:D56)</f>
+      <c r="D58" s="16">
+        <f t="shared" ref="D58:M58" si="82">SUM(D48:D57)</f>
         <v>374.4</v>
       </c>
-      <c r="E57" s="16">
-        <f t="shared" si="86"/>
+      <c r="E58" s="16">
+        <f t="shared" si="82"/>
         <v>382.79999999999995</v>
       </c>
-      <c r="F57" s="16">
-        <f>SUM(F47:F56)</f>
+      <c r="F58" s="16">
+        <f>SUM(F48:F57)</f>
         <v>346.7</v>
       </c>
-      <c r="G57" s="16">
-        <f>SUM(G47:G56)</f>
+      <c r="G58" s="16">
+        <f>SUM(G48:G57)</f>
         <v>394.9</v>
       </c>
-      <c r="H57" s="16">
-        <f>SUM(H47:H56)</f>
+      <c r="H58" s="16">
+        <f>SUM(H48:H57)</f>
         <v>378.9</v>
       </c>
-      <c r="I57" s="16">
-        <f>SUM(I47:I56)</f>
+      <c r="I58" s="16">
+        <f>SUM(I48:I57)</f>
         <v>385.70000000000005</v>
       </c>
-      <c r="J57" s="16">
-        <f>SUM(J47:J56)</f>
+      <c r="J58" s="16">
+        <f>SUM(J48:J57)</f>
         <v>351.3</v>
       </c>
-      <c r="K57" s="16">
-        <f t="shared" si="86"/>
+      <c r="K58" s="16">
+        <f t="shared" si="82"/>
         <v>452.40000000000003</v>
       </c>
-      <c r="L57" s="16">
-        <f t="shared" si="86"/>
+      <c r="L58" s="16">
+        <f t="shared" si="82"/>
         <v>423.2</v>
       </c>
-      <c r="M57" s="16">
-        <f t="shared" si="86"/>
+      <c r="M58" s="16">
+        <f t="shared" si="82"/>
         <v>604</v>
       </c>
-      <c r="N57" s="16">
-        <f>SUM(N47:N56)</f>
+      <c r="N58" s="16">
+        <f>SUM(N48:N57)</f>
         <v>639.09999999999991</v>
       </c>
-      <c r="O57" s="16">
-        <f>SUM(O47:O56)</f>
+      <c r="O58" s="16">
+        <f>SUM(O48:O57)</f>
         <v>623.09999999999991</v>
       </c>
-      <c r="P57" s="16">
-        <f>SUM(P47:P56)</f>
+      <c r="P58" s="16">
+        <f>SUM(P48:P57)</f>
         <v>679.9</v>
       </c>
-      <c r="Q57" s="25">
-        <f>SUM(Q47:Q56)</f>
+      <c r="Q58" s="46">
+        <f>SUM(Q48:Q57)</f>
         <v>653</v>
       </c>
-      <c r="R57" s="16">
-        <f t="shared" ref="R57:S57" si="87">SUM(R47:R56)</f>
-        <v>0</v>
-      </c>
-      <c r="S57" s="16">
-        <f t="shared" si="87"/>
-        <v>0</v>
-      </c>
-      <c r="T57" s="16"/>
-    </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C58" s="1" t="s">
+      <c r="R58" s="25">
+        <f t="shared" ref="R58:S58" si="83">SUM(R48:R57)</f>
+        <v>585.6</v>
+      </c>
+      <c r="S58" s="16">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="T58" s="16"/>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="12">
-        <f t="shared" ref="D58:P58" si="88">D46+D57</f>
+      <c r="D59" s="12">
+        <f t="shared" ref="D59:P59" si="84">D47+D58</f>
         <v>602.79999999999995</v>
       </c>
-      <c r="E58" s="12">
-        <f t="shared" si="88"/>
+      <c r="E59" s="12">
+        <f t="shared" si="84"/>
         <v>606.20000000000005</v>
       </c>
-      <c r="F58" s="12">
-        <f t="shared" si="88"/>
+      <c r="F59" s="12">
+        <f t="shared" si="84"/>
         <v>590.9</v>
       </c>
-      <c r="G58" s="12">
-        <f t="shared" si="88"/>
+      <c r="G59" s="12">
+        <f t="shared" si="84"/>
         <v>622.9</v>
       </c>
-      <c r="H58" s="12">
-        <f>H46+H57</f>
+      <c r="H59" s="12">
+        <f>H47+H58</f>
         <v>634.79999999999995</v>
       </c>
-      <c r="I58" s="12">
-        <f t="shared" si="88"/>
+      <c r="I59" s="12">
+        <f t="shared" si="84"/>
         <v>569.6</v>
       </c>
-      <c r="J58" s="12">
-        <f t="shared" si="88"/>
+      <c r="J59" s="12">
+        <f t="shared" si="84"/>
         <v>542.4</v>
       </c>
-      <c r="K58" s="12">
-        <f t="shared" si="88"/>
+      <c r="K59" s="12">
+        <f t="shared" si="84"/>
         <v>632.6</v>
       </c>
-      <c r="L58" s="12">
-        <f t="shared" si="88"/>
+      <c r="L59" s="12">
+        <f t="shared" si="84"/>
         <v>598.79999999999995</v>
       </c>
-      <c r="M58" s="12">
-        <f t="shared" si="88"/>
+      <c r="M59" s="12">
+        <f t="shared" si="84"/>
         <v>743.7</v>
       </c>
-      <c r="N58" s="12">
-        <f t="shared" si="88"/>
+      <c r="N59" s="12">
+        <f t="shared" si="84"/>
         <v>913.19999999999993</v>
       </c>
-      <c r="O58" s="12">
-        <f t="shared" si="88"/>
+      <c r="O59" s="12">
+        <f t="shared" si="84"/>
         <v>885.3</v>
       </c>
-      <c r="P58" s="12">
-        <f t="shared" si="88"/>
+      <c r="P59" s="12">
+        <f t="shared" si="84"/>
         <v>942.5</v>
       </c>
-      <c r="Q58" s="13">
-        <f>Q46+Q57</f>
+      <c r="Q59" s="39">
+        <f>Q47+Q58</f>
         <v>918.5</v>
       </c>
-      <c r="R58" s="12">
-        <f t="shared" ref="R58:S58" si="89">R46+R57</f>
-        <v>0</v>
-      </c>
-      <c r="S58" s="12">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
-      <c r="T58" s="12"/>
-    </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="14"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
+      <c r="R59" s="13">
+        <f t="shared" ref="R59:S59" si="85">R47+R58</f>
+        <v>841.90000000000009</v>
+      </c>
+      <c r="S59" s="12">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="T59" s="12"/>
     </row>
     <row r="60" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C60" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
@@ -6075,159 +6239,97 @@
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
-      <c r="U60" s="1"/>
-      <c r="V60" s="1"/>
-      <c r="W60" s="1"/>
-      <c r="X60" s="1"/>
-      <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
     </row>
     <row r="61" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C61" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D61" s="14">
-        <f t="shared" ref="D61:P61" si="90">D11</f>
-        <v>39.099999999999966</v>
-      </c>
-      <c r="E61" s="14">
-        <f t="shared" si="90"/>
-        <v>34.499999999999972</v>
-      </c>
-      <c r="F61" s="14">
-        <f t="shared" si="90"/>
-        <v>24.400000000000006</v>
-      </c>
-      <c r="G61" s="14">
-        <f t="shared" si="90"/>
-        <v>39.699999999999989</v>
-      </c>
-      <c r="H61" s="14">
-        <f t="shared" si="90"/>
-        <v>40.899999999999977</v>
-      </c>
-      <c r="I61" s="14">
-        <f t="shared" si="90"/>
-        <v>22.200000000000045</v>
-      </c>
-      <c r="J61" s="14">
-        <f t="shared" si="90"/>
-        <v>10</v>
-      </c>
-      <c r="K61" s="14">
-        <f t="shared" si="90"/>
-        <v>13.200000000000045</v>
-      </c>
-      <c r="L61" s="14">
-        <f t="shared" si="90"/>
-        <v>7.8999999999999773</v>
-      </c>
-      <c r="M61" s="14">
-        <f t="shared" si="90"/>
-        <v>8.6000000000000227</v>
-      </c>
-      <c r="N61" s="14">
-        <f t="shared" si="90"/>
-        <v>1.1000000000000227</v>
-      </c>
-      <c r="O61" s="14">
-        <f t="shared" si="90"/>
-        <v>8.8000000000000114</v>
-      </c>
-      <c r="P61" s="14">
-        <f t="shared" si="90"/>
-        <v>15.899999999999977</v>
-      </c>
-      <c r="Q61" s="15">
-        <f>Q11</f>
-        <v>10.300000000000011</v>
-      </c>
-      <c r="R61" s="14">
-        <f t="shared" ref="R61:S61" si="91">R11</f>
-        <v>0</v>
-      </c>
-      <c r="S61" s="14">
-        <f t="shared" si="91"/>
-        <v>0</v>
-      </c>
-      <c r="T61" s="14"/>
+      <c r="C61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="14"/>
+      <c r="N61" s="14"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
-      <c r="AA61" s="14">
-        <f t="shared" ref="AA61:AE61" si="92">AA11</f>
-        <v>31.183999999999969</v>
-      </c>
-      <c r="AB61" s="14">
-        <f t="shared" si="92"/>
-        <v>42.429000000000087</v>
-      </c>
-      <c r="AC61" s="14">
-        <f t="shared" si="92"/>
-        <v>70.563999999999965</v>
-      </c>
-      <c r="AD61" s="14">
-        <f t="shared" si="92"/>
-        <v>137.66999999999996</v>
-      </c>
-      <c r="AE61" s="14">
-        <f t="shared" si="92"/>
-        <v>86.099999999999909</v>
-      </c>
-      <c r="AF61" s="14">
-        <f>AF11</f>
-        <v>26.299999999999955</v>
-      </c>
     </row>
     <row r="62" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C62" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D62" s="14">
-        <v>39</v>
+        <f t="shared" ref="D62:S62" si="86">D11</f>
+        <v>39.099999999999966</v>
       </c>
       <c r="E62" s="14">
-        <v>35</v>
-      </c>
-      <c r="F62" s="14"/>
+        <f t="shared" si="86"/>
+        <v>34.499999999999972</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="86"/>
+        <v>24.400000000000006</v>
+      </c>
       <c r="G62" s="14">
-        <v>40</v>
+        <f t="shared" si="86"/>
+        <v>39.699999999999989</v>
       </c>
       <c r="H62" s="14">
-        <v>41</v>
+        <f t="shared" si="86"/>
+        <v>40.899999999999977</v>
       </c>
       <c r="I62" s="14">
-        <v>22</v>
+        <f t="shared" si="86"/>
+        <v>22.200000000000045</v>
       </c>
       <c r="J62" s="14">
+        <f t="shared" si="86"/>
         <v>10</v>
       </c>
       <c r="K62" s="14">
-        <v>13</v>
+        <f t="shared" si="86"/>
+        <v>13.200000000000045</v>
       </c>
       <c r="L62" s="14">
-        <v>8</v>
+        <f t="shared" si="86"/>
+        <v>7.8999999999999773</v>
       </c>
       <c r="M62" s="14">
-        <v>9</v>
+        <f t="shared" si="86"/>
+        <v>8.6000000000000227</v>
       </c>
       <c r="N62" s="14">
-        <v>1</v>
+        <f t="shared" si="86"/>
+        <v>1.1000000000000227</v>
       </c>
       <c r="O62" s="14">
-        <v>9</v>
+        <f t="shared" si="86"/>
+        <v>8.8000000000000114</v>
       </c>
       <c r="P62" s="14">
-        <v>16</v>
-      </c>
-      <c r="Q62" s="15">
-        <v>10</v>
-      </c>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
+        <f t="shared" si="86"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="Q62" s="40">
+        <f t="shared" si="86"/>
+        <v>10.300000000000011</v>
+      </c>
+      <c r="R62" s="15">
+        <f t="shared" si="86"/>
+        <v>4.9000000000000057</v>
+      </c>
+      <c r="S62" s="14">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
       <c r="T62" s="14"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
@@ -6236,69 +6338,77 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
       <c r="AA62" s="14">
-        <v>31</v>
+        <f t="shared" ref="AA62:AF62" si="87">AA11</f>
+        <v>31.183999999999969</v>
       </c>
       <c r="AB62" s="14">
-        <v>42</v>
+        <f t="shared" si="87"/>
+        <v>42.429000000000087</v>
       </c>
       <c r="AC62" s="14">
-        <v>71</v>
+        <f t="shared" si="87"/>
+        <v>70.563999999999965</v>
       </c>
       <c r="AD62" s="14">
-        <v>138</v>
+        <f t="shared" si="87"/>
+        <v>137.66999999999996</v>
       </c>
       <c r="AE62" s="14">
-        <v>86</v>
+        <f t="shared" si="87"/>
+        <v>86.099999999999909</v>
       </c>
       <c r="AF62" s="14">
-        <v>26</v>
+        <f t="shared" si="87"/>
+        <v>26.299999999999955</v>
       </c>
     </row>
     <row r="63" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D63" s="14">
-        <v>11.6</v>
+        <v>39</v>
       </c>
       <c r="E63" s="14">
-        <v>6.1</v>
+        <v>35</v>
       </c>
       <c r="F63" s="14"/>
       <c r="G63" s="14">
-        <v>7.1</v>
+        <v>40</v>
       </c>
       <c r="H63" s="14">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="I63" s="14">
-        <v>4.3</v>
+        <v>22</v>
       </c>
       <c r="J63" s="14">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="K63" s="14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L63" s="14">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="M63" s="14">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="N63" s="14">
-        <v>12.8</v>
+        <v>1</v>
       </c>
       <c r="O63" s="14">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="P63" s="14">
-        <v>7.7</v>
-      </c>
-      <c r="Q63" s="15">
-        <v>8</v>
-      </c>
-      <c r="R63" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="Q63" s="40">
+        <v>10</v>
+      </c>
+      <c r="R63" s="15">
+        <v>5</v>
+      </c>
       <c r="S63" s="14"/>
       <c r="T63" s="14"/>
       <c r="U63" s="1"/>
@@ -6308,69 +6418,71 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
       <c r="AA63" s="14">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AB63" s="14">
-        <v>25.343</v>
+        <v>42</v>
       </c>
       <c r="AC63" s="14">
-        <v>16.3</v>
+        <v>71</v>
       </c>
       <c r="AD63" s="14">
-        <v>32.5</v>
+        <v>138</v>
       </c>
       <c r="AE63" s="14">
-        <v>22.8</v>
+        <v>86</v>
       </c>
       <c r="AF63" s="14">
-        <v>29.8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C64" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D64" s="14">
-        <v>1.6</v>
+        <v>11.6</v>
       </c>
       <c r="E64" s="14">
-        <v>0.4</v>
+        <v>6.1</v>
       </c>
       <c r="F64" s="14"/>
       <c r="G64" s="14">
-        <v>0.4</v>
+        <v>7.1</v>
       </c>
       <c r="H64" s="14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I64" s="14">
-        <v>0.2</v>
+        <v>4.3</v>
       </c>
       <c r="J64" s="14">
-        <v>0.3</v>
+        <v>5.5</v>
       </c>
       <c r="K64" s="14">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L64" s="14">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="M64" s="14">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="N64" s="14">
-        <v>1</v>
+        <v>12.8</v>
       </c>
       <c r="O64" s="14">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="P64" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="Q64" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="R64" s="14"/>
+        <v>7.7</v>
+      </c>
+      <c r="Q64" s="40">
+        <v>8</v>
+      </c>
+      <c r="R64" s="15">
+        <v>8.4</v>
+      </c>
       <c r="S64" s="14"/>
       <c r="T64" s="14"/>
       <c r="U64" s="1"/>
@@ -6379,143 +6491,147 @@
       <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
-      <c r="AA64" s="12">
-        <v>4.8000000000000001E-2</v>
+      <c r="AA64" s="14">
+        <v>27</v>
       </c>
       <c r="AB64" s="14">
-        <v>0.27900000000000003</v>
+        <v>25.343</v>
       </c>
       <c r="AC64" s="14">
-        <v>0.113</v>
+        <v>16.3</v>
       </c>
       <c r="AD64" s="14">
-        <v>2.8</v>
+        <v>32.5</v>
       </c>
       <c r="AE64" s="14">
-        <v>1.5</v>
+        <v>22.8</v>
       </c>
       <c r="AF64" s="14">
-        <v>2.2999999999999998</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="65" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C65" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D65" s="14">
-        <v>-0.7</v>
+        <v>1.6</v>
       </c>
       <c r="E65" s="14">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="H65" s="14">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="I65" s="14">
-        <v>-1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="J65" s="14">
-        <v>-1.3</v>
+        <v>0.3</v>
       </c>
       <c r="K65" s="14">
-        <v>-0.7</v>
+        <v>1</v>
       </c>
       <c r="L65" s="14">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M65" s="14">
-        <v>-3.6</v>
+        <v>0.5</v>
       </c>
       <c r="N65" s="14">
-        <v>-5.8</v>
+        <v>1</v>
       </c>
       <c r="O65" s="14">
-        <v>-6.1</v>
+        <v>0.8</v>
       </c>
       <c r="P65" s="14">
-        <v>-5.3</v>
-      </c>
-      <c r="Q65" s="15">
-        <v>-6.4</v>
-      </c>
-      <c r="R65" s="12"/>
-      <c r="S65" s="12"/>
-      <c r="T65" s="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q65" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="R65" s="15">
+        <v>0</v>
+      </c>
+      <c r="S65" s="14"/>
+      <c r="T65" s="14"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
-      <c r="AA65" s="14">
-        <v>-4.3</v>
+      <c r="AA65" s="12">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AB65" s="14">
-        <v>-5</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="AC65" s="14">
-        <v>-3.2</v>
+        <v>0.113</v>
       </c>
       <c r="AD65" s="14">
-        <v>-3.6</v>
+        <v>2.8</v>
       </c>
       <c r="AE65" s="14">
-        <v>-3.9</v>
+        <v>1.5</v>
       </c>
       <c r="AF65" s="14">
-        <v>-17.7</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="66" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C66" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" s="14">
-        <v>-4.8</v>
+        <v>-0.7</v>
       </c>
       <c r="E66" s="14">
-        <v>-9.1999999999999993</v>
+        <v>-1</v>
       </c>
       <c r="F66" s="14"/>
       <c r="G66" s="14">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="H66" s="14">
-        <v>-3.5</v>
+        <v>-0.8</v>
       </c>
       <c r="I66" s="14">
-        <v>-16.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="J66" s="14">
-        <v>-13</v>
+        <v>-1.3</v>
       </c>
       <c r="K66" s="14">
-        <v>5.7</v>
+        <v>-0.7</v>
       </c>
       <c r="L66" s="14">
-        <v>-10.8</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="M66" s="14">
-        <v>-9.9</v>
+        <v>-3.6</v>
       </c>
       <c r="N66" s="14">
-        <v>-13.9</v>
+        <v>-5.8</v>
       </c>
       <c r="O66" s="14">
-        <v>14</v>
+        <v>-6.1</v>
       </c>
       <c r="P66" s="14">
-        <v>-3.1</v>
-      </c>
-      <c r="Q66" s="15">
-        <v>-7.3</v>
-      </c>
-      <c r="R66" s="12"/>
-      <c r="S66" s="12"/>
+        <v>-5.3</v>
+      </c>
+      <c r="Q66" s="40">
+        <v>-6.4</v>
+      </c>
+      <c r="R66" s="15">
+        <v>-6.3</v>
+      </c>
+      <c r="S66" s="14"/>
       <c r="T66" s="12"/>
       <c r="U66" s="1"/>
       <c r="V66" s="1"/>
@@ -6524,372 +6640,385 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
       <c r="AA66" s="14">
-        <v>-16.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AB66" s="14">
-        <v>-11.234999999999999</v>
+        <v>-5</v>
       </c>
       <c r="AC66" s="14">
-        <v>-6.5</v>
+        <v>-3.2</v>
       </c>
       <c r="AD66" s="14">
-        <v>-16</v>
+        <v>-3.6</v>
       </c>
       <c r="AE66" s="14">
-        <v>-27.3</v>
+        <v>-3.9</v>
       </c>
       <c r="AF66" s="14">
-        <v>-20.6</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="67" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="14">
+        <v>-4.8</v>
+      </c>
+      <c r="E67" s="14">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="14">
+        <v>5</v>
+      </c>
+      <c r="H67" s="14">
+        <v>-3.5</v>
+      </c>
+      <c r="I67" s="14">
+        <v>-16.5</v>
+      </c>
+      <c r="J67" s="14">
+        <v>-13</v>
+      </c>
+      <c r="K67" s="14">
+        <v>5.7</v>
+      </c>
+      <c r="L67" s="14">
+        <v>-10.8</v>
+      </c>
+      <c r="M67" s="14">
+        <v>-9.9</v>
+      </c>
+      <c r="N67" s="14">
+        <v>-13.9</v>
+      </c>
+      <c r="O67" s="14">
+        <v>14</v>
+      </c>
+      <c r="P67" s="14">
+        <v>-3.1</v>
+      </c>
+      <c r="Q67" s="40">
+        <v>-7.3</v>
+      </c>
+      <c r="R67" s="15">
+        <v>-6.8</v>
+      </c>
+      <c r="S67" s="14"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="Z67" s="1"/>
+      <c r="AA67" s="14">
+        <v>-16.2</v>
+      </c>
+      <c r="AB67" s="14">
+        <v>-11.234999999999999</v>
+      </c>
+      <c r="AC67" s="14">
+        <v>-6.5</v>
+      </c>
+      <c r="AD67" s="14">
+        <v>-16</v>
+      </c>
+      <c r="AE67" s="14">
+        <v>-27.3</v>
+      </c>
+      <c r="AF67" s="14">
+        <v>-20.6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C68" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f>46.8-19.6+12.9</f>
         <v>40.099999999999994</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E68" s="14">
         <f>30.8+8.8+8.6</f>
         <v>48.2</v>
       </c>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14">
+      <c r="F68" s="14"/>
+      <c r="G68" s="14">
         <f>51.2-22.3+45.5</f>
         <v>74.400000000000006</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H68" s="14">
         <f>42.6-5-0.7</f>
         <v>36.9</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I68" s="14">
         <f>8.9+9.5+6.9</f>
         <v>25.299999999999997</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J68" s="14">
         <v>-42.7</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K68" s="14">
         <f>5.7+14.9</f>
         <v>20.6</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L68" s="14">
         <f>-6.7-10.8</f>
         <v>-17.5</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M68" s="14">
         <f>12.4+9.8</f>
         <v>22.200000000000003</v>
       </c>
-      <c r="N67" s="14">
+      <c r="N68" s="14">
         <f>22.1-64.2</f>
         <v>-42.1</v>
       </c>
-      <c r="O67" s="14">
+      <c r="O68" s="14">
         <f>-3.1+5.9</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="P67" s="14">
+      <c r="P68" s="14">
         <f>8.8-12.9</f>
         <v>-4.0999999999999996</v>
       </c>
-      <c r="Q67" s="15">
+      <c r="Q68" s="40">
         <f>11.5+3.6</f>
         <v>15.1</v>
       </c>
-      <c r="R67" s="12"/>
-      <c r="S67" s="12"/>
-      <c r="T67" s="12"/>
-      <c r="AA67" s="14">
+      <c r="R68" s="15">
+        <f>15.8-47.1</f>
+        <v>-31.3</v>
+      </c>
+      <c r="S68" s="14"/>
+      <c r="T68" s="12"/>
+      <c r="AA68" s="14">
         <f>29.9-12.44</f>
         <v>17.46</v>
       </c>
-      <c r="AB67" s="14">
+      <c r="AB68" s="14">
         <f>20-2.5</f>
         <v>17.5</v>
       </c>
-      <c r="AC67" s="14">
+      <c r="AC68" s="14">
         <f>-41.7+42</f>
         <v>0.29999999999999716</v>
       </c>
-      <c r="AD67" s="14">
+      <c r="AD68" s="14">
         <f>-32.454+30.954</f>
         <v>-1.5</v>
       </c>
-      <c r="AE67" s="14">
+      <c r="AE68" s="14">
         <f>13.2-24.6</f>
         <v>-11.400000000000002</v>
       </c>
-      <c r="AF67" s="14">
+      <c r="AF68" s="14">
         <f>25.3-60</f>
         <v>-34.700000000000003</v>
       </c>
     </row>
-    <row r="68" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C68" s="1" t="s">
+    <row r="69" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="12">
-        <f t="shared" ref="D68:P68" si="93">SUM(D62:D67)</f>
+      <c r="D69" s="12">
+        <f t="shared" ref="D69:P69" si="88">SUM(D63:D68)</f>
         <v>86.8</v>
       </c>
-      <c r="E68" s="12">
-        <f t="shared" si="93"/>
+      <c r="E69" s="12">
+        <f t="shared" si="88"/>
         <v>79.5</v>
       </c>
-      <c r="F68" s="12">
-        <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="12">
-        <f t="shared" si="93"/>
+      <c r="F69" s="12">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="12">
+        <f t="shared" si="88"/>
         <v>125.9</v>
       </c>
-      <c r="H68" s="12">
-        <f t="shared" si="93"/>
+      <c r="H69" s="12">
+        <f t="shared" si="88"/>
         <v>79.599999999999994</v>
       </c>
-      <c r="I68" s="12">
-        <f>SUM(I62:I67)</f>
+      <c r="I69" s="12">
+        <f>SUM(I63:I68)</f>
         <v>34.199999999999996</v>
       </c>
-      <c r="J68" s="12">
-        <f t="shared" si="93"/>
+      <c r="J69" s="12">
+        <f t="shared" si="88"/>
         <v>-41.2</v>
       </c>
-      <c r="K68" s="12">
-        <f t="shared" si="93"/>
+      <c r="K69" s="12">
+        <f t="shared" si="88"/>
         <v>46.6</v>
       </c>
-      <c r="L68" s="12">
-        <f t="shared" si="93"/>
+      <c r="L69" s="12">
+        <f t="shared" si="88"/>
         <v>-15.7</v>
       </c>
-      <c r="M68" s="12">
-        <f t="shared" si="93"/>
+      <c r="M69" s="12">
+        <f t="shared" si="88"/>
         <v>21.6</v>
       </c>
-      <c r="N68" s="12">
-        <f t="shared" si="93"/>
+      <c r="N69" s="12">
+        <f t="shared" si="88"/>
         <v>-47</v>
       </c>
-      <c r="O68" s="12">
-        <f t="shared" si="93"/>
+      <c r="O69" s="12">
+        <f t="shared" si="88"/>
         <v>28.600000000000005</v>
       </c>
-      <c r="P68" s="12">
-        <f t="shared" si="93"/>
+      <c r="P69" s="12">
+        <f t="shared" si="88"/>
         <v>11.3</v>
       </c>
-      <c r="Q68" s="13">
-        <f>SUM(Q62:Q67)</f>
+      <c r="Q69" s="39">
+        <f>SUM(Q63:Q68)</f>
         <v>19.799999999999997</v>
       </c>
-      <c r="R68" s="12">
-        <f t="shared" ref="R68:S68" si="94">SUM(R62:R67)</f>
-        <v>0</v>
-      </c>
-      <c r="S68" s="12">
-        <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="T68" s="12"/>
-      <c r="AA68" s="12">
-        <f t="shared" ref="AA68:AE68" si="95">SUM(AA62:AA67)</f>
+      <c r="R69" s="13">
+        <f t="shared" ref="R69:S69" si="89">SUM(R63:R68)</f>
+        <v>-31</v>
+      </c>
+      <c r="S69" s="12">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="T69" s="12"/>
+      <c r="AA69" s="12">
+        <f t="shared" ref="AA69:AE69" si="90">SUM(AA63:AA68)</f>
         <v>55.008000000000003</v>
       </c>
-      <c r="AB68" s="12">
-        <f t="shared" si="95"/>
+      <c r="AB69" s="12">
+        <f t="shared" si="90"/>
         <v>68.887</v>
       </c>
-      <c r="AC68" s="12">
-        <f t="shared" si="95"/>
+      <c r="AC69" s="12">
+        <f t="shared" si="90"/>
         <v>78.012999999999991</v>
       </c>
-      <c r="AD68" s="12">
-        <f t="shared" si="95"/>
+      <c r="AD69" s="12">
+        <f t="shared" si="90"/>
         <v>152.20000000000002</v>
       </c>
-      <c r="AE68" s="12">
-        <f t="shared" si="95"/>
+      <c r="AE69" s="12">
+        <f t="shared" si="90"/>
         <v>67.699999999999989</v>
       </c>
-      <c r="AF68" s="12">
-        <f>SUM(AF62:AF67)</f>
+      <c r="AF69" s="12">
+        <f>SUM(AF63:AF68)</f>
         <v>-14.900000000000013</v>
       </c>
     </row>
-    <row r="69" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="15"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="14"/>
-      <c r="T69" s="14"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-    </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="14"/>
+      <c r="T70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+    </row>
+    <row r="71" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C71" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="14">
+      <c r="D71" s="14">
         <v>-1</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E71" s="14">
         <v>0.5</v>
       </c>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14">
+      <c r="F71" s="14"/>
+      <c r="G71" s="14">
         <v>1</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H71" s="14">
         <v>-1</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I71" s="14">
         <f>0.4</f>
         <v>0.4</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J71" s="14">
         <v>-0.8</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K71" s="14">
         <f>-3.9</f>
         <v>-3.9</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L71" s="14">
         <v>-3.2</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M71" s="14">
         <f>-1.1-0.4</f>
         <v>-1.5</v>
       </c>
-      <c r="N70" s="14">
+      <c r="N71" s="14">
         <f>-1.6</f>
         <v>-1.6</v>
       </c>
-      <c r="O70" s="14">
-        <v>0</v>
-      </c>
-      <c r="P70" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="15">
-        <v>0</v>
-      </c>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="14"/>
-      <c r="AA70" s="14">
-        <f>-11.1-1.8-4.669</f>
-        <v>-17.568999999999999</v>
-      </c>
-      <c r="AB70" s="14">
-        <f>2.4-0.262-1.2</f>
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="AC70" s="14">
-        <f>-0.457-1.7</f>
-        <v>-2.157</v>
-      </c>
-      <c r="AD70" s="14">
-        <f>-0.489-0.296</f>
-        <v>-0.78499999999999992</v>
-      </c>
-      <c r="AE70" s="14">
-        <f>0.8-4.6-0.3</f>
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="AF70" s="14">
-        <f>-18.5-4.5-0.4</f>
-        <v>-23.4</v>
-      </c>
-    </row>
-    <row r="71" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C71" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D71" s="14">
-        <v>0</v>
-      </c>
-      <c r="E71" s="14">
-        <v>0</v>
-      </c>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14">
-        <v>-3.7</v>
-      </c>
-      <c r="H71" s="14">
-        <v>0</v>
-      </c>
-      <c r="I71" s="14">
-        <v>3.7</v>
-      </c>
-      <c r="J71" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="K71" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="L71" s="14">
-        <v>-1.6</v>
-      </c>
-      <c r="M71" s="14">
-        <v>4.2</v>
-      </c>
-      <c r="N71" s="14">
-        <v>3.2</v>
-      </c>
       <c r="O71" s="14">
         <v>0</v>
       </c>
       <c r="P71" s="14">
         <v>0</v>
       </c>
-      <c r="Q71" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="R71" s="14"/>
+      <c r="Q71" s="40">
+        <v>0</v>
+      </c>
+      <c r="R71" s="15">
+        <v>0</v>
+      </c>
       <c r="S71" s="14"/>
       <c r="T71" s="14"/>
       <c r="AA71" s="14">
-        <v>-5</v>
+        <f>-11.1-1.8-4.669</f>
+        <v>-17.568999999999999</v>
       </c>
       <c r="AB71" s="14">
-        <v>0</v>
+        <f>2.4-0.262-1.2</f>
+        <v>0.93799999999999994</v>
       </c>
       <c r="AC71" s="14">
-        <v>-5.0999999999999996</v>
+        <f>-0.457-1.7</f>
+        <v>-2.157</v>
       </c>
       <c r="AD71" s="14">
-        <v>-3.6</v>
+        <f>-0.489-0.296</f>
+        <v>-0.78499999999999992</v>
       </c>
       <c r="AE71" s="14">
-        <v>7.4</v>
+        <f>0.8-4.6-0.3</f>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AF71" s="14">
-        <v>7.4</v>
+        <f>-18.5-4.5-0.4</f>
+        <v>-23.4</v>
       </c>
     </row>
     <row r="72" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C72" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" s="14">
         <v>0</v>
@@ -6899,63 +7028,65 @@
       </c>
       <c r="F72" s="14"/>
       <c r="G72" s="14">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="H72" s="14">
         <v>0</v>
       </c>
       <c r="I72" s="14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="J72" s="14">
-        <v>-0.4</v>
+        <v>0.4</v>
       </c>
       <c r="K72" s="14">
-        <v>-3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L72" s="14">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="M72" s="14">
-        <v>-1.3</v>
+        <v>4.2</v>
       </c>
       <c r="N72" s="14">
-        <v>-1.1000000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="O72" s="14">
         <v>0</v>
       </c>
       <c r="P72" s="14">
-        <v>-2.8</v>
-      </c>
-      <c r="Q72" s="15">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="R72" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="R72" s="15">
+        <v>0</v>
+      </c>
       <c r="S72" s="14"/>
       <c r="T72" s="14"/>
       <c r="AA72" s="14">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AB72" s="14">
         <v>0</v>
       </c>
       <c r="AC72" s="14">
-        <v>0</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="AD72" s="14">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
       <c r="AE72" s="14">
-        <v>-5.4</v>
+        <v>7.4</v>
       </c>
       <c r="AF72" s="14">
-        <v>-4</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="73" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C73" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D73" s="14">
         <v>0</v>
@@ -6974,30 +7105,32 @@
         <v>0</v>
       </c>
       <c r="J73" s="14">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="K73" s="14">
-        <v>0.8</v>
+        <v>-3.8</v>
       </c>
       <c r="L73" s="14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M73" s="14">
-        <v>0</v>
+        <v>-1.3</v>
       </c>
       <c r="N73" s="14">
-        <v>-18.5</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="O73" s="14">
         <v>0</v>
       </c>
       <c r="P73" s="14">
-        <v>-14.9</v>
-      </c>
-      <c r="Q73" s="15">
-        <v>-0.1</v>
-      </c>
-      <c r="R73" s="14"/>
+        <v>-2.8</v>
+      </c>
+      <c r="Q73" s="40">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="R73" s="15">
+        <v>-1</v>
+      </c>
       <c r="S73" s="14"/>
       <c r="T73" s="14"/>
       <c r="AA73" s="14">
@@ -7010,18 +7143,18 @@
         <v>0</v>
       </c>
       <c r="AD73" s="14">
-        <v>-2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="AE73" s="14">
-        <v>0</v>
+        <v>-5.4</v>
       </c>
       <c r="AF73" s="14">
-        <v>1.6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="74" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C74" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D74" s="14">
         <v>0</v>
@@ -7034,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="H74" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="14">
         <v>0</v>
@@ -7043,51 +7176,53 @@
         <v>0</v>
       </c>
       <c r="K74" s="14">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="L74" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M74" s="14">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N74" s="14">
-        <v>0.5</v>
+        <v>-18.5</v>
       </c>
       <c r="O74" s="14">
         <v>0</v>
       </c>
       <c r="P74" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="15">
-        <v>0</v>
-      </c>
-      <c r="R74" s="14"/>
+        <v>-14.9</v>
+      </c>
+      <c r="Q74" s="40">
+        <v>-0.1</v>
+      </c>
+      <c r="R74" s="15">
+        <v>-0.5</v>
+      </c>
       <c r="S74" s="14"/>
       <c r="T74" s="14"/>
       <c r="AA74" s="14">
         <v>0</v>
       </c>
       <c r="AB74" s="14">
-        <v>0.86699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC74" s="14">
         <v>0</v>
       </c>
       <c r="AD74" s="14">
-        <v>0</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="AE74" s="14">
         <v>0</v>
       </c>
       <c r="AF74" s="14">
-        <v>-0.1</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="75" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D75" s="14">
         <v>0</v>
@@ -7100,7 +7235,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I75" s="14">
         <v>0</v>
@@ -7115,10 +7250,10 @@
         <v>0</v>
       </c>
       <c r="M75" s="14">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N75" s="14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O75" s="14">
         <v>0</v>
@@ -7126,17 +7261,19 @@
       <c r="P75" s="14">
         <v>0</v>
       </c>
-      <c r="Q75" s="15">
-        <v>0</v>
-      </c>
-      <c r="R75" s="14"/>
+      <c r="Q75" s="40">
+        <v>0</v>
+      </c>
+      <c r="R75" s="15">
+        <v>0.1</v>
+      </c>
       <c r="S75" s="14"/>
       <c r="T75" s="14"/>
       <c r="AA75" s="14">
         <v>0</v>
       </c>
       <c r="AB75" s="14">
-        <v>0</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="AC75" s="14">
         <v>0</v>
@@ -7148,12 +7285,12 @@
         <v>0</v>
       </c>
       <c r="AF75" s="14">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="76" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C76" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D76" s="14">
         <v>0</v>
@@ -7192,289 +7329,295 @@
       <c r="P76" s="14">
         <v>0</v>
       </c>
-      <c r="Q76" s="15">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="R76" s="14"/>
+      <c r="Q76" s="40">
+        <v>0</v>
+      </c>
+      <c r="R76" s="15">
+        <v>0</v>
+      </c>
       <c r="S76" s="14"/>
       <c r="T76" s="14"/>
       <c r="AA76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C77" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D77" s="14">
+        <v>0</v>
+      </c>
+      <c r="E77" s="14">
+        <v>0</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14">
+        <v>0</v>
+      </c>
+      <c r="H77" s="14">
+        <v>0</v>
+      </c>
+      <c r="I77" s="14">
+        <v>0</v>
+      </c>
+      <c r="J77" s="14">
+        <v>0</v>
+      </c>
+      <c r="K77" s="14">
+        <v>0</v>
+      </c>
+      <c r="L77" s="14">
+        <v>0</v>
+      </c>
+      <c r="M77" s="14">
+        <v>0</v>
+      </c>
+      <c r="N77" s="14">
+        <v>0</v>
+      </c>
+      <c r="O77" s="14">
+        <v>0</v>
+      </c>
+      <c r="P77" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="40">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="R77" s="15">
+        <v>0</v>
+      </c>
+      <c r="S77" s="14"/>
+      <c r="T77" s="14"/>
+      <c r="AA77" s="14">
         <v>0.86699999999999999</v>
       </c>
-      <c r="AB76" s="14">
+      <c r="AB77" s="14">
         <v>-5</v>
       </c>
-      <c r="AC76" s="14">
+      <c r="AC77" s="14">
         <v>-6.9000000000000006E-2</v>
       </c>
-      <c r="AD76" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE76" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF76" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C77" s="1" t="s">
+      <c r="AD77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D77" s="12">
-        <f t="shared" ref="D77:P77" si="96">SUM(D70:D76)</f>
+      <c r="D78" s="12">
+        <f t="shared" ref="D78:P78" si="91">SUM(D71:D77)</f>
         <v>-1</v>
       </c>
-      <c r="E77" s="12">
-        <f t="shared" si="96"/>
+      <c r="E78" s="12">
+        <f t="shared" si="91"/>
         <v>0.5</v>
       </c>
-      <c r="F77" s="12">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="G77" s="12">
-        <f t="shared" si="96"/>
+      <c r="F78" s="12">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <f t="shared" si="91"/>
         <v>-2.7</v>
       </c>
-      <c r="H77" s="12">
-        <f t="shared" si="96"/>
+      <c r="H78" s="12">
+        <f t="shared" si="91"/>
         <v>-2</v>
       </c>
-      <c r="I77" s="12">
-        <f t="shared" si="96"/>
+      <c r="I78" s="12">
+        <f t="shared" si="91"/>
         <v>4.1000000000000005</v>
       </c>
-      <c r="J77" s="12">
-        <f t="shared" si="96"/>
+      <c r="J78" s="12">
+        <f t="shared" si="91"/>
         <v>-0.8</v>
       </c>
-      <c r="K77" s="12">
-        <f t="shared" si="96"/>
+      <c r="K78" s="12">
+        <f t="shared" si="91"/>
         <v>-3.6000000000000005</v>
       </c>
-      <c r="L77" s="12">
-        <f t="shared" si="96"/>
+      <c r="L78" s="12">
+        <f t="shared" si="91"/>
         <v>-4.3000000000000007</v>
       </c>
-      <c r="M77" s="12">
-        <f t="shared" si="96"/>
+      <c r="M78" s="12">
+        <f t="shared" si="91"/>
         <v>2</v>
       </c>
-      <c r="N77" s="12">
-        <f t="shared" si="96"/>
+      <c r="N78" s="12">
+        <f t="shared" si="91"/>
         <v>-17.5</v>
       </c>
-      <c r="O77" s="12">
-        <f t="shared" si="96"/>
-        <v>0</v>
-      </c>
-      <c r="P77" s="12">
-        <f t="shared" si="96"/>
+      <c r="O78" s="12">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="12">
+        <f t="shared" si="91"/>
         <v>-17.7</v>
       </c>
-      <c r="Q77" s="13">
-        <f>SUM(Q70:Q76)</f>
+      <c r="Q78" s="39">
+        <f>SUM(Q71:Q77)</f>
         <v>-37.9</v>
       </c>
-      <c r="R77" s="12">
-        <f t="shared" ref="R77:S77" si="97">SUM(R70:R76)</f>
-        <v>0</v>
-      </c>
-      <c r="S77" s="12">
-        <f t="shared" si="97"/>
-        <v>0</v>
-      </c>
-      <c r="T77" s="12"/>
-      <c r="AA77" s="12">
-        <f t="shared" ref="AA77:AE77" si="98">SUM(AA70:AA76)</f>
+      <c r="R78" s="13">
+        <f t="shared" ref="R78:S78" si="92">SUM(R71:R77)</f>
+        <v>-1.4</v>
+      </c>
+      <c r="S78" s="12">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="12"/>
+      <c r="AA78" s="12">
+        <f t="shared" ref="AA78:AE78" si="93">SUM(AA71:AA77)</f>
         <v>-21.701999999999998</v>
       </c>
-      <c r="AB77" s="12">
-        <f t="shared" si="98"/>
+      <c r="AB78" s="12">
+        <f t="shared" si="93"/>
         <v>-3.1950000000000003</v>
       </c>
-      <c r="AC77" s="12">
-        <f t="shared" si="98"/>
+      <c r="AC78" s="12">
+        <f t="shared" si="93"/>
         <v>-7.3259999999999996</v>
       </c>
-      <c r="AD77" s="12">
-        <f t="shared" si="98"/>
+      <c r="AD78" s="12">
+        <f t="shared" si="93"/>
         <v>-4.41</v>
       </c>
-      <c r="AE77" s="12">
-        <f t="shared" si="98"/>
+      <c r="AE78" s="12">
+        <f t="shared" si="93"/>
         <v>-2.0999999999999996</v>
       </c>
-      <c r="AF77" s="12">
-        <f>SUM(AF70:AF76)</f>
+      <c r="AF78" s="12">
+        <f>SUM(AF71:AF77)</f>
         <v>-18.5</v>
       </c>
     </row>
-    <row r="78" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="14"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="15"/>
-      <c r="R78" s="14"/>
-      <c r="S78" s="14"/>
-      <c r="T78" s="14"/>
-      <c r="AA78" s="14"/>
-      <c r="AB78" s="14"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
-      <c r="AE78" s="14"/>
-      <c r="AF78" s="14"/>
-    </row>
     <row r="79" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="14"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="40"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="14"/>
+      <c r="T79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AC79" s="14"/>
+      <c r="AD79" s="14"/>
+      <c r="AE79" s="14"/>
+      <c r="AF79" s="14"/>
+    </row>
+    <row r="80" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C80" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <v>-4</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E80" s="14">
         <v>-8.6</v>
       </c>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14">
+      <c r="F80" s="14"/>
+      <c r="G80" s="14">
         <v>-11.3</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H80" s="14">
         <v>-4</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I80" s="14">
         <v>-4</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J80" s="14">
         <v>-4</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K80" s="14">
         <v>-4</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L80" s="14">
         <f>-8.2</f>
         <v>-8.1999999999999993</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M80" s="14">
         <v>-57.8</v>
       </c>
-      <c r="N79" s="14">
-        <v>0</v>
-      </c>
-      <c r="O79" s="14">
-        <v>0</v>
-      </c>
-      <c r="P79" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q79" s="15">
-        <v>0</v>
-      </c>
-      <c r="R79" s="14"/>
-      <c r="S79" s="14"/>
-      <c r="T79" s="14"/>
-      <c r="AA79" s="14">
-        <v>-42.399000000000001</v>
-      </c>
-      <c r="AB79" s="14">
-        <v>-58.2</v>
-      </c>
-      <c r="AC79" s="14">
-        <v>-14.85</v>
-      </c>
-      <c r="AD79" s="14">
-        <v>-16</v>
-      </c>
-      <c r="AE79" s="14">
-        <v>-16</v>
-      </c>
-      <c r="AF79" s="14">
-        <v>-66</v>
-      </c>
-    </row>
-    <row r="80" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="14">
-        <v>-2.9</v>
-      </c>
-      <c r="E80" s="14">
-        <v>0</v>
-      </c>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14">
-        <v>0</v>
-      </c>
-      <c r="H80" s="14">
-        <v>-4.3</v>
-      </c>
-      <c r="I80" s="14">
-        <v>0</v>
-      </c>
-      <c r="J80" s="14">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="K80" s="14">
-        <v>-5.5</v>
-      </c>
-      <c r="L80" s="14">
-        <v>-4.7</v>
-      </c>
-      <c r="M80" s="14">
-        <v>-4.9000000000000004</v>
-      </c>
       <c r="N80" s="14">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
       <c r="O80" s="14">
-        <v>-6.3</v>
+        <v>0</v>
       </c>
       <c r="P80" s="14">
-        <v>-6.4</v>
-      </c>
-      <c r="Q80" s="15">
-        <v>-6.1</v>
-      </c>
-      <c r="R80" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="40">
+        <v>0</v>
+      </c>
+      <c r="R80" s="15">
+        <v>0</v>
+      </c>
       <c r="S80" s="14"/>
       <c r="T80" s="14"/>
       <c r="AA80" s="14">
-        <v>0</v>
+        <v>-42.399000000000001</v>
       </c>
       <c r="AB80" s="14">
-        <v>-5.8999999999999997E-2</v>
+        <v>-58.2</v>
       </c>
       <c r="AC80" s="14">
-        <v>-12.792</v>
+        <v>-14.85</v>
       </c>
       <c r="AD80" s="14">
-        <v>-18.817</v>
+        <v>-16</v>
       </c>
       <c r="AE80" s="14">
-        <v>-18.899999999999999</v>
+        <v>-16</v>
       </c>
       <c r="AF80" s="14">
-        <v>-17.7</v>
+        <v>-66</v>
       </c>
     </row>
     <row r="81" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C81" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D81" s="14">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="E81" s="14">
         <v>0</v>
@@ -7484,60 +7627,62 @@
         <v>0</v>
       </c>
       <c r="H81" s="14">
-        <v>0</v>
+        <v>-4.3</v>
       </c>
       <c r="I81" s="14">
-        <v>-8.5</v>
+        <v>0</v>
       </c>
       <c r="J81" s="14">
-        <v>0</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="K81" s="14">
-        <v>50</v>
+        <v>-5.5</v>
       </c>
       <c r="L81" s="14">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
       <c r="M81" s="14">
-        <v>200</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="N81" s="14">
-        <v>0</v>
+        <v>-1.8</v>
       </c>
       <c r="O81" s="14">
-        <v>0</v>
+        <v>-6.3</v>
       </c>
       <c r="P81" s="14">
-        <v>50</v>
-      </c>
-      <c r="Q81" s="15">
-        <v>0</v>
-      </c>
-      <c r="R81" s="14"/>
+        <v>-6.4</v>
+      </c>
+      <c r="Q81" s="40">
+        <v>-6.1</v>
+      </c>
+      <c r="R81" s="15">
+        <v>-5.7</v>
+      </c>
       <c r="S81" s="14"/>
       <c r="T81" s="14"/>
       <c r="AA81" s="14">
-        <v>43.8</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="14">
-        <v>27.747</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="AC81" s="14">
-        <v>0</v>
+        <v>-12.792</v>
       </c>
       <c r="AD81" s="14">
-        <v>0</v>
+        <v>-18.817</v>
       </c>
       <c r="AE81" s="14">
-        <v>50</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="AF81" s="14">
-        <v>200</v>
+        <v>-17.7</v>
       </c>
     </row>
     <row r="82" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D82" s="14">
         <v>0</v>
@@ -7550,193 +7695,199 @@
         <v>0</v>
       </c>
       <c r="H82" s="14">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I82" s="14">
-        <v>0</v>
+        <v>-8.5</v>
       </c>
       <c r="J82" s="14">
         <v>0</v>
       </c>
       <c r="K82" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L82" s="14">
         <v>0</v>
       </c>
       <c r="M82" s="14">
-        <v>-2.2000000000000002</v>
+        <v>200</v>
       </c>
       <c r="N82" s="14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="O82" s="14">
         <v>0</v>
       </c>
       <c r="P82" s="14">
-        <v>-1.5</v>
-      </c>
-      <c r="Q82" s="15">
-        <v>-0.5</v>
-      </c>
-      <c r="R82" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="Q82" s="40">
+        <v>0</v>
+      </c>
+      <c r="R82" s="15">
+        <v>0</v>
+      </c>
       <c r="S82" s="14"/>
       <c r="T82" s="14"/>
       <c r="AA82" s="14">
-        <v>0</v>
+        <v>43.8</v>
       </c>
       <c r="AB82" s="14">
-        <v>0</v>
+        <v>27.747</v>
       </c>
       <c r="AC82" s="14">
         <v>0</v>
       </c>
       <c r="AD82" s="14">
-        <f>0.018-0.033</f>
-        <v>-1.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="14">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AF82" s="14">
-        <v>-2.7</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C83" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D83" s="14">
         <v>0</v>
       </c>
       <c r="E83" s="14">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="F83" s="14"/>
       <c r="G83" s="14">
         <v>0</v>
       </c>
       <c r="H83" s="14">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="I83" s="14">
-        <v>-67.7</v>
+        <v>0</v>
       </c>
       <c r="J83" s="14">
         <v>0</v>
       </c>
       <c r="K83" s="14">
-        <v>-15.5</v>
+        <v>0</v>
       </c>
       <c r="L83" s="14">
         <v>0</v>
       </c>
       <c r="M83" s="14">
-        <v>0</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="N83" s="14">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="O83" s="14">
         <v>0</v>
       </c>
       <c r="P83" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="15">
-        <v>0</v>
-      </c>
-      <c r="R83" s="14"/>
+        <v>-1.5</v>
+      </c>
+      <c r="Q83" s="40">
+        <v>-0.5</v>
+      </c>
+      <c r="R83" s="15">
+        <v>-0.2</v>
+      </c>
       <c r="S83" s="14"/>
       <c r="T83" s="14"/>
       <c r="AA83" s="14">
-        <v>-16.7</v>
+        <v>0</v>
       </c>
       <c r="AB83" s="14">
         <v>0</v>
       </c>
       <c r="AC83" s="14">
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="AD83" s="14">
-        <v>0</v>
+        <f>0.018-0.033</f>
+        <v>-1.5000000000000003E-2</v>
       </c>
       <c r="AE83" s="14">
-        <v>-67.7</v>
+        <v>0</v>
       </c>
       <c r="AF83" s="14">
-        <v>-31.9</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="84" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C84" s="2" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D84" s="14">
         <v>0</v>
       </c>
       <c r="E84" s="14">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="F84" s="14"/>
       <c r="G84" s="14">
         <v>0</v>
       </c>
       <c r="H84" s="14">
-        <v>-2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="I84" s="14">
-        <v>0</v>
+        <v>-67.7</v>
       </c>
       <c r="J84" s="14">
         <v>0</v>
       </c>
       <c r="K84" s="14">
-        <v>0</v>
+        <v>-15.5</v>
       </c>
       <c r="L84" s="14">
         <v>0</v>
       </c>
       <c r="M84" s="14">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="N84" s="14">
         <v>0</v>
       </c>
       <c r="O84" s="14">
-        <v>-31.9</v>
+        <v>0</v>
       </c>
       <c r="P84" s="14">
         <v>0</v>
       </c>
-      <c r="Q84" s="15">
-        <v>0.4</v>
-      </c>
-      <c r="R84" s="14"/>
+      <c r="Q84" s="40">
+        <v>0</v>
+      </c>
+      <c r="R84" s="15">
+        <v>0</v>
+      </c>
       <c r="S84" s="14"/>
       <c r="T84" s="14"/>
       <c r="AA84" s="14">
-        <v>0</v>
+        <v>-16.7</v>
       </c>
       <c r="AB84" s="14">
         <v>0</v>
       </c>
       <c r="AC84" s="14">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="AD84" s="14">
         <v>0</v>
       </c>
       <c r="AE84" s="14">
-        <v>0.7</v>
+        <v>-67.7</v>
       </c>
       <c r="AF84" s="14">
-        <v>2.1</v>
+        <v>-31.9</v>
       </c>
     </row>
     <row r="85" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D85" s="14">
         <v>0</v>
@@ -7746,10 +7897,10 @@
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="H85" s="14">
-        <v>-3.4</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="I85" s="14">
         <v>0</v>
@@ -7761,24 +7912,26 @@
         <v>0</v>
       </c>
       <c r="L85" s="14">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="M85" s="14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N85" s="14">
         <v>0</v>
       </c>
       <c r="O85" s="14">
-        <v>0</v>
+        <v>-31.9</v>
       </c>
       <c r="P85" s="14">
         <v>0</v>
       </c>
-      <c r="Q85" s="15">
-        <v>0</v>
-      </c>
-      <c r="R85" s="14"/>
+      <c r="Q85" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="R85" s="15">
+        <v>0</v>
+      </c>
       <c r="S85" s="14"/>
       <c r="T85" s="14"/>
       <c r="AA85" s="14">
@@ -7791,49 +7944,46 @@
         <v>0</v>
       </c>
       <c r="AD85" s="14">
-        <f>-30-50</f>
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AE85" s="14">
-        <f>-1-18.3-19.7</f>
-        <v>-39</v>
+        <v>0.7</v>
       </c>
       <c r="AF85" s="14">
-        <f>2.3-6.6-13.1</f>
-        <v>-17.399999999999999</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="86" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C86" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D86" s="14">
         <v>0</v>
       </c>
       <c r="E86" s="14">
-        <v>-3.2</v>
+        <v>0</v>
       </c>
       <c r="F86" s="14"/>
       <c r="G86" s="14">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="H86" s="14">
-        <v>0</v>
+        <v>-3.4</v>
       </c>
       <c r="I86" s="14">
-        <v>-7.1</v>
+        <v>0</v>
       </c>
       <c r="J86" s="14">
         <v>0</v>
       </c>
       <c r="K86" s="14">
-        <v>-18.3</v>
+        <v>0</v>
       </c>
       <c r="L86" s="14">
-        <v>0</v>
+        <v>-6.6</v>
       </c>
       <c r="M86" s="14">
-        <v>-4.7</v>
+        <v>0</v>
       </c>
       <c r="N86" s="14">
         <v>0</v>
@@ -7842,42 +7992,47 @@
         <v>0</v>
       </c>
       <c r="P86" s="14">
-        <v>-2.4</v>
-      </c>
-      <c r="Q86" s="15">
-        <v>-1</v>
-      </c>
-      <c r="R86" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="40">
+        <v>0</v>
+      </c>
+      <c r="R86" s="15">
+        <v>0</v>
+      </c>
       <c r="S86" s="14"/>
       <c r="T86" s="14"/>
       <c r="AA86" s="14">
-        <v>-4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="14">
-        <v>-6.5</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="14">
-        <v>-5.2</v>
+        <v>0</v>
       </c>
       <c r="AD86" s="14">
-        <v>-3.2</v>
+        <f>-30-50</f>
+        <v>-80</v>
       </c>
       <c r="AE86" s="14">
-        <v>-9.3000000000000007</v>
+        <f>-1-18.3-19.7</f>
+        <v>-39</v>
       </c>
       <c r="AF86" s="14">
-        <v>-4.7</v>
+        <f>2.3-6.6-13.1</f>
+        <v>-17.399999999999999</v>
       </c>
     </row>
     <row r="87" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C87" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D87" s="14">
         <v>0</v>
       </c>
       <c r="E87" s="14">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14">
@@ -7887,19 +8042,19 @@
         <v>0</v>
       </c>
       <c r="I87" s="14">
-        <v>0</v>
+        <v>-7.1</v>
       </c>
       <c r="J87" s="14">
         <v>0</v>
       </c>
       <c r="K87" s="14">
-        <v>0</v>
-      </c>
-      <c r="L87" s="2">
+        <v>-18.3</v>
+      </c>
+      <c r="L87" s="14">
         <v>0</v>
       </c>
       <c r="M87" s="14">
-        <v>0.2</v>
+        <v>-4.7</v>
       </c>
       <c r="N87" s="14">
         <v>0</v>
@@ -7908,36 +8063,38 @@
         <v>0</v>
       </c>
       <c r="P87" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="15">
-        <v>0</v>
-      </c>
-      <c r="R87" s="14"/>
+        <v>-2.4</v>
+      </c>
+      <c r="Q87" s="40">
+        <v>-1</v>
+      </c>
+      <c r="R87" s="15">
+        <v>-0.5</v>
+      </c>
       <c r="S87" s="14"/>
       <c r="T87" s="14"/>
       <c r="AA87" s="14">
-        <v>0</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="AB87" s="14">
-        <v>0</v>
+        <v>-6.5</v>
       </c>
       <c r="AC87" s="14">
-        <v>0.98299999999999998</v>
+        <v>-5.2</v>
       </c>
       <c r="AD87" s="14">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="AE87" s="14">
-        <v>0</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="AF87" s="14">
-        <v>0</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="88" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C88" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D88" s="14">
         <v>0</v>
@@ -7961,11 +8118,11 @@
       <c r="K88" s="14">
         <v>0</v>
       </c>
-      <c r="L88" s="14">
-        <v>2.1</v>
+      <c r="L88" s="2">
+        <v>0</v>
       </c>
       <c r="M88" s="14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N88" s="14">
         <v>0</v>
@@ -7976,10 +8133,12 @@
       <c r="P88" s="14">
         <v>0</v>
       </c>
-      <c r="Q88" s="15">
-        <v>-0.2</v>
-      </c>
-      <c r="R88" s="14"/>
+      <c r="Q88" s="40">
+        <v>0</v>
+      </c>
+      <c r="R88" s="15">
+        <v>0</v>
+      </c>
       <c r="S88" s="14"/>
       <c r="T88" s="14"/>
       <c r="AA88" s="14">
@@ -7989,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="AC88" s="14">
-        <v>3.3</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="AD88" s="14">
         <v>0</v>
@@ -8003,7 +8162,7 @@
     </row>
     <row r="89" spans="3:32" x14ac:dyDescent="0.25">
       <c r="C89" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D89" s="14">
         <v>0</v>
@@ -8019,19 +8178,19 @@
         <v>0</v>
       </c>
       <c r="I89" s="14">
-        <v>-15.8</v>
+        <v>0</v>
       </c>
       <c r="J89" s="14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="K89" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L89" s="14">
-        <v>-6.3</v>
+        <v>2.1</v>
       </c>
       <c r="M89" s="14">
-        <v>-6.8</v>
+        <v>0</v>
       </c>
       <c r="N89" s="14">
         <v>0</v>
@@ -8040,456 +8199,528 @@
         <v>0</v>
       </c>
       <c r="P89" s="14">
-        <v>-6</v>
-      </c>
-      <c r="Q89" s="15">
-        <v>0</v>
-      </c>
-      <c r="R89" s="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="40">
+        <v>-0.2</v>
+      </c>
+      <c r="R89" s="15">
+        <v>0</v>
+      </c>
       <c r="S89" s="14"/>
       <c r="T89" s="14"/>
       <c r="AA89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="AD89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C90" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D90" s="14">
+        <v>0</v>
+      </c>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14">
+        <v>0</v>
+      </c>
+      <c r="H90" s="14">
+        <v>0</v>
+      </c>
+      <c r="I90" s="14">
+        <v>-15.8</v>
+      </c>
+      <c r="J90" s="14">
+        <v>-0.5</v>
+      </c>
+      <c r="K90" s="14">
+        <v>-1</v>
+      </c>
+      <c r="L90" s="14">
+        <v>-6.3</v>
+      </c>
+      <c r="M90" s="14">
+        <v>-6.8</v>
+      </c>
+      <c r="N90" s="14">
+        <v>0</v>
+      </c>
+      <c r="O90" s="14">
+        <v>0</v>
+      </c>
+      <c r="P90" s="14">
+        <v>-6</v>
+      </c>
+      <c r="Q90" s="40">
+        <v>0</v>
+      </c>
+      <c r="R90" s="15">
+        <v>-3.1</v>
+      </c>
+      <c r="S90" s="14"/>
+      <c r="T90" s="14"/>
+      <c r="AA90" s="14">
         <v>-7.3</v>
       </c>
-      <c r="AB89" s="14">
+      <c r="AB90" s="14">
         <v>-10.1</v>
       </c>
-      <c r="AC89" s="14">
+      <c r="AC90" s="14">
         <v>-26.254000000000001</v>
       </c>
-      <c r="AD89" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF89" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C90" s="1" t="s">
+      <c r="AD90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE90" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF90" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D90" s="12">
-        <f t="shared" ref="D90:P90" si="99">SUM(D79:D89)</f>
+      <c r="D91" s="12">
+        <f t="shared" ref="D91:P91" si="94">SUM(D80:D90)</f>
         <v>-6.9</v>
       </c>
-      <c r="E90" s="12">
-        <f t="shared" si="99"/>
+      <c r="E91" s="12">
+        <f t="shared" si="94"/>
         <v>-41.800000000000004</v>
       </c>
-      <c r="F90" s="12">
-        <f t="shared" si="99"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="12">
-        <f t="shared" si="99"/>
+      <c r="F91" s="12">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="12">
+        <f t="shared" si="94"/>
         <v>-61.3</v>
       </c>
-      <c r="H90" s="12">
-        <f t="shared" si="99"/>
+      <c r="H91" s="12">
+        <f t="shared" si="94"/>
         <v>-13.200000000000001</v>
       </c>
-      <c r="I90" s="12">
-        <f t="shared" si="99"/>
+      <c r="I91" s="12">
+        <f t="shared" si="94"/>
         <v>-103.1</v>
       </c>
-      <c r="J90" s="12">
-        <f t="shared" si="99"/>
+      <c r="J91" s="12">
+        <f t="shared" si="94"/>
         <v>-9.1</v>
       </c>
-      <c r="K90" s="12">
-        <f t="shared" si="99"/>
+      <c r="K91" s="12">
+        <f t="shared" si="94"/>
         <v>5.6999999999999993</v>
       </c>
-      <c r="L90" s="12">
-        <f t="shared" si="99"/>
+      <c r="L91" s="12">
+        <f t="shared" si="94"/>
         <v>-23.7</v>
       </c>
-      <c r="M90" s="12">
-        <f t="shared" si="99"/>
+      <c r="M91" s="12">
+        <f t="shared" si="94"/>
         <v>125.90000000000002</v>
       </c>
-      <c r="N90" s="12">
-        <f t="shared" si="99"/>
+      <c r="N91" s="12">
+        <f t="shared" si="94"/>
         <v>-2.2999999999999998</v>
       </c>
-      <c r="O90" s="12">
-        <f t="shared" si="99"/>
+      <c r="O91" s="12">
+        <f t="shared" si="94"/>
         <v>-38.199999999999996</v>
       </c>
-      <c r="P90" s="12">
-        <f t="shared" si="99"/>
+      <c r="P91" s="12">
+        <f t="shared" si="94"/>
         <v>33.700000000000003</v>
       </c>
-      <c r="Q90" s="13">
-        <f>SUM(Q79:Q89)</f>
+      <c r="Q91" s="39">
+        <f>SUM(Q80:Q90)</f>
         <v>-7.3999999999999995</v>
       </c>
-      <c r="R90" s="12">
-        <f t="shared" ref="R90:S90" si="100">SUM(R79:R89)</f>
-        <v>0</v>
-      </c>
-      <c r="S90" s="12">
-        <f t="shared" si="100"/>
-        <v>0</v>
-      </c>
-      <c r="T90" s="12"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="AA90" s="12">
-        <f t="shared" ref="AA90:AE90" si="101">SUM(AA79:AA89)</f>
+      <c r="R91" s="13">
+        <f t="shared" ref="R91:S91" si="95">SUM(R80:R90)</f>
+        <v>-9.5</v>
+      </c>
+      <c r="S91" s="12">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="T91" s="12"/>
+      <c r="U91" s="1"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+      <c r="AA91" s="12">
+        <f t="shared" ref="AA91:AE91" si="96">SUM(AA80:AA90)</f>
         <v>-26.999000000000006</v>
       </c>
-      <c r="AB90" s="12">
-        <f t="shared" si="101"/>
+      <c r="AB91" s="12">
+        <f t="shared" si="96"/>
         <v>-47.112000000000002</v>
       </c>
-      <c r="AC90" s="12">
-        <f t="shared" si="101"/>
+      <c r="AC91" s="12">
+        <f t="shared" si="96"/>
         <v>-62.313000000000002</v>
       </c>
-      <c r="AD90" s="12">
-        <f t="shared" si="101"/>
+      <c r="AD91" s="12">
+        <f t="shared" si="96"/>
         <v>-118.032</v>
       </c>
-      <c r="AE90" s="12">
-        <f t="shared" si="101"/>
+      <c r="AE91" s="12">
+        <f t="shared" si="96"/>
         <v>-100.2</v>
       </c>
-      <c r="AF90" s="12">
-        <f>SUM(AF79:AF89)</f>
+      <c r="AF91" s="12">
+        <f>SUM(AF80:AF90)</f>
         <v>61.699999999999974</v>
       </c>
     </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="14"/>
-      <c r="S91" s="14"/>
-      <c r="T91" s="14"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-    </row>
     <row r="92" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C92" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D92" s="14"/>
-      <c r="E92" s="14">
-        <v>0</v>
-      </c>
+      <c r="E92" s="14"/>
       <c r="F92" s="14"/>
-      <c r="G92" s="14">
-        <v>0</v>
-      </c>
-      <c r="H92" s="14">
-        <v>0</v>
-      </c>
-      <c r="I92" s="14">
-        <v>0</v>
-      </c>
-      <c r="J92" s="14">
-        <v>0</v>
-      </c>
-      <c r="K92" s="14">
-        <v>0</v>
-      </c>
-      <c r="L92" s="14">
-        <v>0</v>
-      </c>
-      <c r="M92" s="14">
-        <v>0</v>
-      </c>
-      <c r="N92" s="14">
-        <v>0</v>
-      </c>
-      <c r="O92" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="P92" s="14">
-        <v>-0.7</v>
-      </c>
-      <c r="Q92" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="R92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="40"/>
+      <c r="R92" s="15"/>
       <c r="S92" s="14"/>
       <c r="T92" s="14"/>
-      <c r="AA92" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="14">
-        <v>0</v>
-      </c>
-      <c r="AC92" s="14">
-        <v>0</v>
-      </c>
-      <c r="AD92" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE92" s="14">
-        <v>0</v>
-      </c>
-      <c r="AF92" s="14">
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AC92" s="14"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="14"/>
+      <c r="AF92" s="14"/>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C93" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14">
+        <v>0</v>
+      </c>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14">
+        <v>0</v>
+      </c>
+      <c r="H93" s="14">
+        <v>0</v>
+      </c>
+      <c r="I93" s="14">
+        <v>0</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0</v>
+      </c>
+      <c r="L93" s="14">
+        <v>0</v>
+      </c>
+      <c r="M93" s="14">
+        <v>0</v>
+      </c>
+      <c r="N93" s="14">
+        <v>0</v>
+      </c>
+      <c r="O93" s="14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="14"/>
-      <c r="M93" s="14"/>
-      <c r="N93" s="14"/>
-      <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
-      <c r="Q93" s="15"/>
-      <c r="R93" s="14"/>
+      <c r="P93" s="14">
+        <v>-0.7</v>
+      </c>
+      <c r="Q93" s="40">
+        <v>0.3</v>
+      </c>
+      <c r="R93" s="15">
+        <v>0</v>
+      </c>
       <c r="S93" s="14"/>
       <c r="T93" s="14"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="14"/>
-      <c r="AC93" s="14"/>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="14"/>
-      <c r="AF93" s="14"/>
+      <c r="AA93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="14">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="14">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="94" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="40"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="14"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
+      <c r="AC94" s="14"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="14"/>
+      <c r="AF94" s="14"/>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C95" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D94" s="14">
-        <f t="shared" ref="D94:P94" si="102">D68+D77+D90+D92</f>
+      <c r="D95" s="14">
+        <f t="shared" ref="D95:P95" si="97">D69+D78+D91+D93</f>
         <v>78.899999999999991</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E95" s="14">
+        <f t="shared" si="97"/>
+        <v>38.199999999999996</v>
+      </c>
+      <c r="F95" s="14">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="14">
+        <f t="shared" si="97"/>
+        <v>61.900000000000006</v>
+      </c>
+      <c r="H95" s="14">
+        <f t="shared" si="97"/>
+        <v>64.399999999999991</v>
+      </c>
+      <c r="I95" s="14">
+        <f t="shared" si="97"/>
+        <v>-64.8</v>
+      </c>
+      <c r="J95" s="14">
+        <f t="shared" si="97"/>
+        <v>-51.1</v>
+      </c>
+      <c r="K95" s="14">
+        <f t="shared" si="97"/>
+        <v>48.7</v>
+      </c>
+      <c r="L95" s="14">
+        <f t="shared" si="97"/>
+        <v>-43.7</v>
+      </c>
+      <c r="M95" s="14">
+        <f t="shared" si="97"/>
+        <v>149.50000000000003</v>
+      </c>
+      <c r="N95" s="14">
+        <f t="shared" si="97"/>
+        <v>-66.8</v>
+      </c>
+      <c r="O95" s="14">
+        <f t="shared" si="97"/>
+        <v>-9.3999999999999915</v>
+      </c>
+      <c r="P95" s="14">
+        <f t="shared" si="97"/>
+        <v>26.600000000000005</v>
+      </c>
+      <c r="Q95" s="40">
+        <f>Q69+Q78+Q91+Q93</f>
+        <v>-25.2</v>
+      </c>
+      <c r="R95" s="15">
+        <f t="shared" ref="R95:S95" si="98">R69+R78+R91+R93</f>
+        <v>-41.9</v>
+      </c>
+      <c r="S95" s="14">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="14"/>
+      <c r="AA95" s="14">
+        <f t="shared" ref="AA95" si="99">AA69+AA78+AA91+AA93</f>
+        <v>6.3069999999999986</v>
+      </c>
+      <c r="AB95" s="14">
+        <f t="shared" ref="AB95:AE95" si="100">AB69+AB78+AB91+AB93</f>
+        <v>18.580000000000005</v>
+      </c>
+      <c r="AC95" s="14">
+        <f t="shared" si="100"/>
+        <v>8.3739999999999952</v>
+      </c>
+      <c r="AD95" s="14">
+        <f t="shared" si="100"/>
+        <v>29.758000000000024</v>
+      </c>
+      <c r="AE95" s="14">
+        <f t="shared" si="100"/>
+        <v>-34.600000000000009</v>
+      </c>
+      <c r="AF95" s="14">
+        <f t="shared" ref="AF95" si="101">AF69+AF78+AF91+AF93</f>
+        <v>28.499999999999961</v>
+      </c>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="40"/>
+      <c r="R96" s="15"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="14"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AC96" s="14"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="14"/>
+      <c r="AF96" s="14"/>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.25">
+      <c r="C97" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D97" s="14">
+        <f t="shared" ref="D97:P97" si="102">D69+D71</f>
+        <v>85.8</v>
+      </c>
+      <c r="E97" s="14">
         <f t="shared" si="102"/>
-        <v>38.199999999999996</v>
-      </c>
-      <c r="F94" s="14">
+        <v>80</v>
+      </c>
+      <c r="F97" s="14">
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G97" s="14">
         <f t="shared" si="102"/>
-        <v>61.900000000000006</v>
-      </c>
-      <c r="H94" s="14">
+        <v>126.9</v>
+      </c>
+      <c r="H97" s="14">
         <f t="shared" si="102"/>
-        <v>64.399999999999991</v>
-      </c>
-      <c r="I94" s="14">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="I97" s="14">
         <f t="shared" si="102"/>
-        <v>-64.8</v>
-      </c>
-      <c r="J94" s="14">
+        <v>34.599999999999994</v>
+      </c>
+      <c r="J97" s="14">
         <f t="shared" si="102"/>
-        <v>-51.1</v>
-      </c>
-      <c r="K94" s="14">
+        <v>-42</v>
+      </c>
+      <c r="K97" s="14">
         <f t="shared" si="102"/>
-        <v>48.7</v>
-      </c>
-      <c r="L94" s="14">
+        <v>42.7</v>
+      </c>
+      <c r="L97" s="14">
         <f t="shared" si="102"/>
-        <v>-43.7</v>
-      </c>
-      <c r="M94" s="14">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="M97" s="14">
         <f t="shared" si="102"/>
-        <v>149.50000000000003</v>
-      </c>
-      <c r="N94" s="14">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="N97" s="14">
         <f t="shared" si="102"/>
-        <v>-66.8</v>
-      </c>
-      <c r="O94" s="14">
+        <v>-48.6</v>
+      </c>
+      <c r="O97" s="14">
         <f t="shared" si="102"/>
-        <v>-9.3999999999999915</v>
-      </c>
-      <c r="P94" s="14">
+        <v>28.600000000000005</v>
+      </c>
+      <c r="P97" s="14">
         <f t="shared" si="102"/>
-        <v>26.600000000000005</v>
-      </c>
-      <c r="Q94" s="15">
-        <f>Q68+Q77+Q90+Q92</f>
-        <v>-25.2</v>
-      </c>
-      <c r="R94" s="14">
-        <f t="shared" ref="R94:S94" si="103">R68+R77+R90+R92</f>
-        <v>0</v>
-      </c>
-      <c r="S94" s="14">
+        <v>11.3</v>
+      </c>
+      <c r="Q97" s="40">
+        <f>Q69+Q71</f>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="R97" s="15">
+        <f t="shared" ref="R97:S97" si="103">R69+R71</f>
+        <v>-31</v>
+      </c>
+      <c r="S97" s="14">
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="T94" s="14"/>
-      <c r="AA94" s="14">
-        <f t="shared" ref="AA94" si="104">AA68+AA77+AA90+AA92</f>
-        <v>6.3069999999999986</v>
-      </c>
-      <c r="AB94" s="14">
-        <f t="shared" ref="AB94:AE94" si="105">AB68+AB77+AB90+AB92</f>
-        <v>18.580000000000005</v>
-      </c>
-      <c r="AC94" s="14">
+      <c r="T97" s="14"/>
+      <c r="AA97" s="14">
+        <f t="shared" ref="AA97" si="104">AA69+AA71</f>
+        <v>37.439000000000007</v>
+      </c>
+      <c r="AB97" s="14">
+        <f t="shared" ref="AB97:AE97" si="105">AB69+AB71</f>
+        <v>69.825000000000003</v>
+      </c>
+      <c r="AC97" s="14">
         <f t="shared" si="105"/>
-        <v>8.3739999999999952</v>
-      </c>
-      <c r="AD94" s="14">
+        <v>75.855999999999995</v>
+      </c>
+      <c r="AD97" s="14">
         <f t="shared" si="105"/>
-        <v>29.758000000000024</v>
-      </c>
-      <c r="AE94" s="14">
+        <v>151.41500000000002</v>
+      </c>
+      <c r="AE97" s="14">
         <f t="shared" si="105"/>
-        <v>-34.600000000000009</v>
-      </c>
-      <c r="AF94" s="14">
-        <f t="shared" ref="AF94" si="106">AF68+AF77+AF90+AF92</f>
-        <v>28.499999999999961</v>
-      </c>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="15"/>
-      <c r="R95" s="14"/>
-      <c r="S95" s="14"/>
-      <c r="T95" s="14"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="14"/>
-      <c r="AC95" s="14"/>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="14"/>
-      <c r="AF95" s="14"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.25">
-      <c r="C96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D96" s="14">
-        <f t="shared" ref="D96:P96" si="107">D68+D70</f>
-        <v>85.8</v>
-      </c>
-      <c r="E96" s="14">
-        <f t="shared" si="107"/>
-        <v>80</v>
-      </c>
-      <c r="F96" s="14">
-        <f t="shared" si="107"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="14">
-        <f t="shared" si="107"/>
-        <v>126.9</v>
-      </c>
-      <c r="H96" s="14">
-        <f t="shared" si="107"/>
-        <v>78.599999999999994</v>
-      </c>
-      <c r="I96" s="14">
-        <f t="shared" si="107"/>
-        <v>34.599999999999994</v>
-      </c>
-      <c r="J96" s="14">
-        <f t="shared" si="107"/>
-        <v>-42</v>
-      </c>
-      <c r="K96" s="14">
-        <f t="shared" si="107"/>
-        <v>42.7</v>
-      </c>
-      <c r="L96" s="14">
-        <f t="shared" si="107"/>
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="M96" s="14">
-        <f t="shared" si="107"/>
-        <v>20.100000000000001</v>
-      </c>
-      <c r="N96" s="14">
-        <f t="shared" si="107"/>
-        <v>-48.6</v>
-      </c>
-      <c r="O96" s="14">
-        <f t="shared" si="107"/>
-        <v>28.600000000000005</v>
-      </c>
-      <c r="P96" s="14">
-        <f t="shared" si="107"/>
-        <v>11.3</v>
-      </c>
-      <c r="Q96" s="15">
-        <f>Q68+Q70</f>
-        <v>19.799999999999997</v>
-      </c>
-      <c r="R96" s="14">
-        <f t="shared" ref="R96:S96" si="108">R68+R70</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="14">
-        <f t="shared" si="108"/>
-        <v>0</v>
-      </c>
-      <c r="T96" s="14"/>
-      <c r="AA96" s="14">
-        <f t="shared" ref="AA96" si="109">AA68+AA70</f>
-        <v>37.439000000000007</v>
-      </c>
-      <c r="AB96" s="14">
-        <f t="shared" ref="AB96:AE96" si="110">AB68+AB70</f>
-        <v>69.825000000000003</v>
-      </c>
-      <c r="AC96" s="14">
-        <f t="shared" si="110"/>
-        <v>75.855999999999995</v>
-      </c>
-      <c r="AD96" s="14">
-        <f t="shared" si="110"/>
-        <v>151.41500000000002</v>
-      </c>
-      <c r="AE96" s="14">
-        <f t="shared" si="110"/>
         <v>63.599999999999987</v>
       </c>
-      <c r="AF96" s="14">
-        <f t="shared" ref="AF96" si="111">AF68+AF70</f>
+      <c r="AF97" s="14">
+        <f t="shared" ref="AF97" si="106">AF69+AF71</f>
         <v>-38.300000000000011</v>
       </c>
     </row>
@@ -8504,7 +8735,7 @@
   <dimension ref="C4:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8532,15 +8763,15 @@
       </c>
       <c r="D5" s="27">
         <f>Modell!$B$9/Modell!AG11</f>
-        <v>17.42469976106285</v>
+        <v>16.631159399789787</v>
       </c>
       <c r="E5" s="27">
         <f>Modell!$B$9/Modell!AH11</f>
-        <v>15.07062319092641</v>
+        <v>14.384290115721191</v>
       </c>
       <c r="F5" s="27">
         <f>Modell!$B$9/Modell!AI11</f>
-        <v>13.070963480560168</v>
+        <v>12.475697150305876</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="62" x14ac:dyDescent="0.7">
@@ -8549,15 +8780,15 @@
       </c>
       <c r="D6" s="27">
         <f>Modell!$B$4/Modell!AG17</f>
-        <v>21.489206091290132</v>
+        <v>19.280035371624791</v>
       </c>
       <c r="E6" s="27">
         <f>Modell!$B$4/Modell!AH17</f>
-        <v>10.201613591327959</v>
+        <v>9.1528495772662062</v>
       </c>
       <c r="F6" s="27">
         <f>Modell!$B$4/Modell!AI17</f>
-        <v>8.8480029661492132</v>
+        <v>7.9383951845824718</v>
       </c>
     </row>
   </sheetData>
@@ -8569,11 +8800,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2F9286-AFD9-E440-AE41-30BCDBF90EF2}">
   <dimension ref="A3:DD45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AA29" sqref="AA29"/>
+      <selection pane="bottomRight" activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -8823,7 +9054,7 @@
     <row r="6" spans="1:108" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>AA23</f>
-        <v>-0.11866876564139417</v>
+        <v>-1.768289503780392E-2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>52</v>
@@ -10481,7 +10712,7 @@
       </c>
       <c r="AA23" s="36">
         <f>(AA22-Modell!$B$4)/Modell!$B$4</f>
-        <v>-0.11866876564139417</v>
+        <v>-1.768289503780392E-2</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
@@ -10720,7 +10951,7 @@
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <f>AA45</f>
-        <v>-0.35716160922877982</v>
+        <v>-0.28350304361957751</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>52</v>
@@ -12378,7 +12609,7 @@
       </c>
       <c r="AA45" s="36">
         <f>(AA44-Modell!$B$4)/Modell!$B$4</f>
-        <v>-0.35716160922877982</v>
+        <v>-0.28350304361957751</v>
       </c>
     </row>
   </sheetData>
